--- a/option_chain.xlsx
+++ b/option_chain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cb4cecaa05735e09/Desktop/bipinmsit/tradetools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="730" documentId="11_F25DC773A252ABDACC1048C589D870065ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD2CA3A1-5786-4C52-BA87-7F1D22F27200}"/>
+  <xr:revisionPtr revIDLastSave="875" documentId="11_F25DC773A252ABDACC1048C589D870065ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54E53962-4B0B-41BA-B788-1A910C1E9924}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -448,11 +448,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S200"/>
+  <dimension ref="A1:S150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M12" sqref="M12"/>
+      <selection pane="bottomLeft" activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -528,36 +528,36 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>287.8</v>
+        <v>256.45</v>
       </c>
       <c r="C2" s="2">
-        <v>22062</v>
+        <v>11301</v>
       </c>
       <c r="D2" s="2">
-        <v>-858</v>
+        <v>-1090</v>
       </c>
       <c r="E2" s="3">
-        <v>21900</v>
+        <v>21950</v>
       </c>
       <c r="F2" s="2">
-        <v>24165</v>
+        <v>25629</v>
       </c>
       <c r="G2" s="2">
-        <v>144972</v>
+        <v>91096</v>
       </c>
       <c r="H2" s="2">
-        <v>9.65</v>
+        <v>9.25</v>
       </c>
       <c r="I2" s="2">
-        <f>G2/C2</f>
-        <v>6.5711177590426981</v>
+        <f>IF(G2&gt;0, G2/C2, "")</f>
+        <v>8.0608795681798071</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="2">
         <f>SUM(D2:D200)</f>
-        <v>188517</v>
+        <v>190972</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>13</v>
@@ -566,10 +566,10 @@
         <v>45379</v>
       </c>
       <c r="N2" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O2" s="9">
-        <v>22164.65</v>
+        <v>22184.799999999999</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
@@ -577,36 +577,36 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>241.85</v>
+        <v>209.9</v>
       </c>
       <c r="C3" s="2">
-        <v>11599</v>
+        <v>101229</v>
       </c>
       <c r="D3" s="2">
-        <v>-792</v>
+        <v>-12643</v>
       </c>
       <c r="E3" s="3">
-        <v>21950</v>
+        <v>22000</v>
       </c>
       <c r="F3" s="2">
-        <v>25407</v>
+        <v>82618</v>
       </c>
       <c r="G3" s="2">
-        <v>90874</v>
+        <v>304390</v>
       </c>
       <c r="H3" s="2">
-        <v>14</v>
+        <v>13.8</v>
       </c>
       <c r="I3" s="2">
-        <f t="shared" ref="I3:I66" si="0">G3/C3</f>
-        <v>7.834640917320459</v>
+        <f t="shared" ref="I3:I66" si="0">IF(G3&gt;0, G3/C3, "")</f>
+        <v>3.0069446502484465</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K3" s="2">
         <f>SUM(F2:F200)</f>
-        <v>578956</v>
+        <v>633271</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
@@ -614,36 +614,36 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>198.2</v>
+        <v>166.95</v>
       </c>
       <c r="C4" s="2">
-        <v>103220</v>
+        <v>50770</v>
       </c>
       <c r="D4" s="2">
-        <v>-10652</v>
+        <v>-9447</v>
       </c>
       <c r="E4" s="3">
-        <v>22000</v>
+        <v>22050</v>
       </c>
       <c r="F4" s="2">
-        <v>89356</v>
+        <v>68315</v>
       </c>
       <c r="G4" s="2">
-        <v>311128</v>
+        <v>126728</v>
       </c>
       <c r="H4" s="2">
-        <v>20.65</v>
+        <v>20.25</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" si="0"/>
-        <v>3.0142220499903121</v>
+        <v>2.4961197557612764</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="K4" s="4">
         <f>ROUND(SUM(G2:G200)/SUM(C2:C200), 3)</f>
-        <v>1.181</v>
+        <v>1.0820000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
@@ -651,35 +651,35 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>156.85</v>
+        <v>126.3</v>
       </c>
       <c r="C5" s="2">
-        <v>49850</v>
+        <v>157989</v>
       </c>
       <c r="D5" s="2">
-        <v>-10367</v>
+        <v>12444</v>
       </c>
       <c r="E5" s="3">
-        <v>22050</v>
+        <v>22100</v>
       </c>
       <c r="F5" s="2">
-        <v>59845</v>
+        <v>183437</v>
       </c>
       <c r="G5" s="2">
-        <v>118258</v>
+        <v>319123</v>
       </c>
       <c r="H5" s="2">
-        <v>29.15</v>
+        <v>30.25</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" si="0"/>
-        <v>2.3722768304914745</v>
+        <v>2.0199064491831709</v>
       </c>
       <c r="J5" s="5">
-        <v>0.52473379629629624</v>
+        <v>0.59321759259259255</v>
       </c>
       <c r="K5" s="2">
-        <v>3.1760000000000002</v>
+        <v>3.3159999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
@@ -687,35 +687,35 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>119.15</v>
+        <v>92</v>
       </c>
       <c r="C6" s="2">
-        <v>165267</v>
+        <v>109087</v>
       </c>
       <c r="D6" s="2">
-        <v>19722</v>
+        <v>49343</v>
       </c>
       <c r="E6" s="3">
-        <v>22100</v>
+        <v>22150</v>
       </c>
       <c r="F6" s="2">
-        <v>165094</v>
+        <v>112739</v>
       </c>
       <c r="G6" s="2">
-        <v>300780</v>
+        <v>146386</v>
       </c>
       <c r="H6" s="2">
-        <v>40.85</v>
+        <v>45.8</v>
       </c>
       <c r="I6" s="2">
         <f t="shared" si="0"/>
-        <v>1.8199640581604313</v>
+        <v>1.341919752124451</v>
       </c>
       <c r="J6" s="5">
-        <v>0.52614583333333331</v>
+        <v>0.59466435185185185</v>
       </c>
       <c r="K6" s="2">
-        <v>3.0710000000000002</v>
+        <v>3.3159999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
@@ -723,35 +723,29 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>86.2</v>
+        <v>62.75</v>
       </c>
       <c r="C7" s="2">
-        <v>114306</v>
+        <v>176066</v>
       </c>
       <c r="D7" s="2">
-        <v>54562</v>
+        <v>44419</v>
       </c>
       <c r="E7" s="3">
-        <v>22150</v>
+        <v>22200</v>
       </c>
       <c r="F7" s="2">
-        <v>95346</v>
+        <v>106718</v>
       </c>
       <c r="G7" s="2">
-        <v>128993</v>
+        <v>153248</v>
       </c>
       <c r="H7" s="2">
-        <v>58.15</v>
+        <v>66.650000000000006</v>
       </c>
       <c r="I7" s="2">
         <f t="shared" si="0"/>
-        <v>1.128488443301314</v>
-      </c>
-      <c r="J7" s="5">
-        <v>0.52754629629629635</v>
-      </c>
-      <c r="K7" s="2">
-        <v>3.0710000000000002</v>
+        <v>0.87040087240012265</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
@@ -759,29 +753,29 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>58.45</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="C8" s="2">
-        <v>184282</v>
+        <v>83922</v>
       </c>
       <c r="D8" s="2">
-        <v>52635</v>
+        <v>27626</v>
       </c>
       <c r="E8" s="3">
-        <v>22200</v>
+        <v>22250</v>
       </c>
       <c r="F8" s="2">
-        <v>80844</v>
+        <v>19494</v>
       </c>
       <c r="G8" s="2">
-        <v>127374</v>
+        <v>29144</v>
       </c>
       <c r="H8" s="2">
-        <v>80.599999999999994</v>
+        <v>93.7</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="0"/>
-        <v>0.69119067516089472</v>
+        <v>0.34727485045637618</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
@@ -789,29 +783,29 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>36.299999999999997</v>
+        <v>23.65</v>
       </c>
       <c r="C9" s="2">
-        <v>85294</v>
+        <v>126334</v>
       </c>
       <c r="D9" s="2">
-        <v>28998</v>
+        <v>-1614</v>
       </c>
       <c r="E9" s="3">
-        <v>22250</v>
+        <v>22300</v>
       </c>
       <c r="F9" s="2">
-        <v>13610</v>
+        <v>27000</v>
       </c>
       <c r="G9" s="2">
-        <v>23260</v>
+        <v>56378</v>
       </c>
       <c r="H9" s="2">
-        <v>108.35</v>
+        <v>127.4</v>
       </c>
       <c r="I9" s="2">
         <f t="shared" si="0"/>
-        <v>0.27270382441906815</v>
+        <v>0.44626149730080578</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
@@ -819,29 +813,29 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>20.65</v>
+        <v>12.2</v>
       </c>
       <c r="C10" s="2">
-        <v>131742</v>
+        <v>88929</v>
       </c>
       <c r="D10" s="2">
-        <v>3794</v>
+        <v>14746</v>
       </c>
       <c r="E10" s="3">
-        <v>22300</v>
+        <v>22350</v>
       </c>
       <c r="F10" s="2">
-        <v>21474</v>
+        <v>3912</v>
       </c>
       <c r="G10" s="2">
-        <v>50852</v>
+        <v>8003</v>
       </c>
       <c r="H10" s="2">
-        <v>143</v>
+        <v>166.6</v>
       </c>
       <c r="I10" s="2">
         <f t="shared" si="0"/>
-        <v>0.38599687267538069</v>
+        <v>8.9993140595306373E-2</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
@@ -849,29 +843,29 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>10.9</v>
+        <v>5.85</v>
       </c>
       <c r="C11" s="2">
-        <v>85588</v>
+        <v>164982</v>
       </c>
       <c r="D11" s="2">
-        <v>11405</v>
+        <v>41306</v>
       </c>
       <c r="E11" s="3">
-        <v>22350</v>
+        <v>22400</v>
       </c>
       <c r="F11" s="2">
-        <v>2912</v>
+        <v>3158</v>
       </c>
       <c r="G11" s="2">
-        <v>7003</v>
+        <v>17709</v>
       </c>
       <c r="H11" s="2">
-        <v>183.3</v>
+        <v>209.45</v>
       </c>
       <c r="I11" s="2">
         <f t="shared" si="0"/>
-        <v>8.1822218067953451E-2</v>
+        <v>0.10733898243444739</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
@@ -879,1157 +873,857 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>5.4</v>
+        <v>2.75</v>
       </c>
       <c r="C12" s="2">
-        <v>163746</v>
+        <v>87542</v>
       </c>
       <c r="D12" s="2">
-        <v>40070</v>
+        <v>25882</v>
       </c>
       <c r="E12" s="3">
-        <v>22400</v>
+        <v>22450</v>
       </c>
       <c r="F12" s="2">
-        <v>903</v>
+        <v>251</v>
       </c>
       <c r="G12" s="2">
-        <v>15454</v>
+        <v>1348</v>
       </c>
       <c r="H12" s="2">
-        <v>227.85</v>
+        <v>256.89999999999998</v>
       </c>
       <c r="I12" s="2">
         <f t="shared" si="0"/>
-        <v>9.4377877932896065E-2</v>
+        <v>1.5398323090630783E-2</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="I13" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="I14" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="I15" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="I16" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="17" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I17" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="18" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I18" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="19" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I19" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="20" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I20" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="21" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I21" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="22" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I22" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="23" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I23" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="24" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I24" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="25" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I25" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="26" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I26" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="27" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I27" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="28" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I28" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="29" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I29" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="30" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I30" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="31" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I31" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="32" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I32" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="33" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I33" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="34" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I34" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="35" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I35" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="36" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I36" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="37" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I37" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I37" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="38" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I38" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I38" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="39" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I39" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I39" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="40" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I40" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I40" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="41" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I41" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I41" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="42" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I42" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I42" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="43" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I43" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I43" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="44" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I44" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I44" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="45" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I45" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I45" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="46" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I46" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I46" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="47" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I47" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I47" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="48" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I48" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I48" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="49" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I49" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I49" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="50" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I50" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I50" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="51" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I51" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I51" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="52" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I52" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I52" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="53" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I53" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I53" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="54" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I54" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I54" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="55" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I55" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I55" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="56" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I56" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I56" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="57" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I57" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I57" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="58" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I58" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I58" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="59" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I59" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I59" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="60" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I60" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I60" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="61" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I61" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I61" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="62" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I62" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I62" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="63" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I63" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I63" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="64" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I64" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I64" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="65" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I65" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I65" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="66" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I66" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I66" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="67" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I67" s="2" t="e">
-        <f t="shared" ref="I67:I130" si="1">G67/C67</f>
-        <v>#DIV/0!</v>
+      <c r="I67" s="2" t="str">
+        <f t="shared" ref="I67:I130" si="1">IF(G67&gt;0, G67/C67, "")</f>
+        <v/>
       </c>
     </row>
     <row r="68" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I68" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I68" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="69" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I69" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I69" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="70" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I70" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I70" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="71" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I71" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I71" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="72" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I72" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I72" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="73" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I73" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I73" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="74" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I74" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I74" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="75" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I75" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I75" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="76" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I76" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I76" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="77" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I77" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I77" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="78" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I78" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I78" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="79" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I79" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I79" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="80" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I80" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I80" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="81" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I81" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I81" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="82" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I82" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I82" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="83" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I83" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I83" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="84" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I84" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I84" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="85" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I85" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I85" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="86" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I86" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I86" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="87" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I87" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I87" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="88" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I88" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I88" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="89" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I89" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I89" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="90" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I90" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I90" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="91" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I91" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I91" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="92" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I92" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I92" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="93" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I93" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I93" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="94" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I94" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I94" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="95" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I95" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I95" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="96" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I96" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I96" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="97" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I97" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I97" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="98" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I98" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I98" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="99" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I99" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I99" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="100" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I100" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I100" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="101" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I101" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I101" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="102" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I102" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I102" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="103" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I103" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I103" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="104" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I104" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I104" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="105" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I105" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I105" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="106" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I106" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I106" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="107" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I107" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I107" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="108" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I108" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I108" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="109" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I109" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I109" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="110" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I110" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I110" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="111" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I111" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I111" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="112" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I112" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I112" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="113" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I113" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I113" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="114" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I114" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I114" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="115" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I115" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I115" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="116" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I116" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I116" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="117" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I117" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I117" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="118" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I118" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I118" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="119" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I119" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I119" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="120" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I120" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I120" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="121" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I121" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I121" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="122" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I122" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I122" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="123" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I123" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I123" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="124" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I124" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I124" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="125" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I125" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I125" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="126" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I126" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I126" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="127" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I127" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I127" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="128" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I128" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I128" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="129" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I129" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I129" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="130" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I130" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I130" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="131" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I131" s="2" t="e">
-        <f t="shared" ref="I131:I194" si="2">G131/C131</f>
-        <v>#DIV/0!</v>
+      <c r="I131" s="2" t="str">
+        <f t="shared" ref="I131:I150" si="2">IF(G131&gt;0, G131/C131, "")</f>
+        <v/>
       </c>
     </row>
     <row r="132" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I132" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="I132" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="133" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I133" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="I133" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="134" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I134" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="I134" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="135" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I135" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="I135" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="136" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I136" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="I136" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="137" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I137" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="I137" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="138" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I138" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="I138" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="139" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I139" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="I139" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="140" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I140" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="I140" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="141" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I141" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="I141" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="142" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I142" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="I142" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="143" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I143" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="I143" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="144" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I144" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="I144" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="145" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I145" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="I145" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="146" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I146" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="I146" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="147" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I147" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="I147" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="148" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I148" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="I148" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="149" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I149" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="I149" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="150" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I150" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="151" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I151" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="152" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I152" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="153" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I153" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="154" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I154" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="155" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I155" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="156" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I156" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="157" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I157" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="158" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I158" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="159" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I159" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="160" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I160" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="161" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I161" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="162" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I162" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="163" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I163" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="164" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I164" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="165" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I165" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="166" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I166" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="167" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I167" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="168" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I168" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="169" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I169" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="170" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I170" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="171" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I171" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="172" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I172" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="173" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I173" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="174" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I174" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="175" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I175" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="176" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I176" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="177" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I177" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="178" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I178" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="179" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I179" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="180" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I180" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="181" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I181" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="182" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I182" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="183" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I183" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="184" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I184" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="185" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I185" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="186" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I186" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="187" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I187" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="188" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I188" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="189" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I189" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="190" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I190" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="191" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I191" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="192" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I192" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="193" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I193" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="194" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I194" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="195" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I195" s="2" t="e">
-        <f t="shared" ref="I195:I200" si="3">G195/C195</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="196" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I196" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="197" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I197" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="198" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I198" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="199" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I199" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="200" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I200" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="I150" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -2037,11 +1731,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2" xr:uid="{96B84952-593E-4414-97B0-5B64851D6666}">
       <formula1>"""28-Mar-2024,04-Apr-2024,10-Apr-2024,18-Apr-2024,25-Apr-2024,02-May-2024,30-May-2024,27-Jun-2024,26-Sep-2024,26-Dec-2024,26-Jun-2025,24-Dec-2025,25-Jun-2026,31-Dec-2026,24-Jun-2027,30-Dec-2027,29-Jun-2028,28-Dec-2028"""</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2 K7:K10 M8:M10 L3:L4 J5:J6" xr:uid="{4CBC4F7A-CAE0-4273-9B44-B686111ECF83}">
-      <formula1>"""3,5,10,15,20"""</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L4 J5:J10" xr:uid="{638F3690-EE2A-454A-9984-B221A0E4CF0F}">
+      <formula1>"""NIFTY,BANKNIFTY,FINNIFTY,MIDCPNIFTY,SENSEX"""</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J10 L2:L4 L8:L10" xr:uid="{638F3690-EE2A-454A-9984-B221A0E4CF0F}">
-      <formula1>"""NIFTY,BANKNIFTY,FINNIFTY,MIDCPNIFTY,SENSEX"""</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2 K7:K10 J5:J6 L3:L4" xr:uid="{4B424003-7348-43CE-B3FE-DA8FF30059AE}">
+      <formula1>"""5,3,10,15,20"""</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/option_chain.xlsx
+++ b/option_chain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cb4cecaa05735e09/Desktop/bipinmsit/tradetools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="875" documentId="11_F25DC773A252ABDACC1048C589D870065ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54E53962-4B0B-41BA-B788-1A910C1E9924}"/>
+  <xr:revisionPtr revIDLastSave="4830" documentId="11_F25DC773A252ABDACC1048C589D870065ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29CAC2BF-C259-4FD6-8B1B-F38AC8BB071B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Call_LTP</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Index</t>
   </si>
   <si>
-    <t>Expiry</t>
-  </si>
-  <si>
     <t>Spot</t>
   </si>
   <si>
@@ -70,6 +67,15 @@
   </si>
   <si>
     <t>No_of_Strike</t>
+  </si>
+  <si>
+    <t>BANKNIFTY</t>
+  </si>
+  <si>
+    <t>FINNIFTY</t>
+  </si>
+  <si>
+    <t>MIDCPNIFTY</t>
   </si>
 </sst>
 </file>
@@ -93,7 +99,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -112,12 +118,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -131,7 +131,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -148,20 +148,14 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -448,35 +442,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S150"/>
+  <dimension ref="A1:R150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O6" sqref="O6"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.26953125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="7.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.6328125" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="5" style="2"/>
+    <col min="14" max="14" width="10.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -510,605 +504,734 @@
         <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>256.45</v>
+        <v>127.45</v>
       </c>
       <c r="C2" s="2">
-        <v>11301</v>
+        <v>115025</v>
       </c>
       <c r="D2" s="2">
-        <v>-1090</v>
+        <v>-60974</v>
       </c>
       <c r="E2" s="3">
-        <v>21950</v>
+        <v>22200</v>
       </c>
       <c r="F2" s="2">
-        <v>25629</v>
+        <v>71835</v>
       </c>
       <c r="G2" s="2">
-        <v>91096</v>
+        <v>181819</v>
       </c>
       <c r="H2" s="2">
-        <v>9.25</v>
+        <v>0.15</v>
       </c>
       <c r="I2" s="2">
-        <f>IF(G2&gt;0, G2/C2, "")</f>
-        <v>8.0608795681798071</v>
+        <f>IF(G2&gt;0, ROUND(G2/C2,3), "")</f>
+        <v>1.581</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="2">
         <f>SUM(D2:D200)</f>
-        <v>190972</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="10">
+        <v>430243</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="7">
         <v>45379</v>
       </c>
-      <c r="N2" s="9">
-        <v>5</v>
-      </c>
-      <c r="O2" s="9">
-        <v>22184.799999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="N2" s="8">
+        <v>45385</v>
+      </c>
+      <c r="O2" s="8">
+        <v>45384</v>
+      </c>
+      <c r="P2" s="8">
+        <v>45383</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>3</v>
+      </c>
+      <c r="R2" s="6">
+        <v>22326.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>209.9</v>
+        <v>77.55</v>
       </c>
       <c r="C3" s="2">
-        <v>101229</v>
+        <v>151752</v>
       </c>
       <c r="D3" s="2">
-        <v>-12643</v>
+        <v>71106</v>
       </c>
       <c r="E3" s="3">
-        <v>22000</v>
+        <v>22250</v>
       </c>
       <c r="F3" s="2">
-        <v>82618</v>
+        <v>143673</v>
       </c>
       <c r="G3" s="2">
-        <v>304390</v>
+        <v>163015</v>
       </c>
       <c r="H3" s="2">
-        <v>13.8</v>
+        <v>0.25</v>
       </c>
       <c r="I3" s="2">
-        <f t="shared" ref="I3:I66" si="0">IF(G3&gt;0, G3/C3, "")</f>
-        <v>3.0069446502484465</v>
+        <f t="shared" ref="I3:I66" si="0">IF(G3&gt;0, ROUND(G3/C3,3), "")</f>
+        <v>1.0740000000000001</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K3" s="2">
         <f>SUM(F2:F200)</f>
-        <v>633271</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+        <v>1096108</v>
+      </c>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>166.95</v>
+        <v>27.6</v>
       </c>
       <c r="C4" s="2">
-        <v>50770</v>
+        <v>289038</v>
       </c>
       <c r="D4" s="2">
-        <v>-9447</v>
+        <v>154670</v>
       </c>
       <c r="E4" s="3">
-        <v>22050</v>
+        <v>22300</v>
       </c>
       <c r="F4" s="2">
-        <v>68315</v>
+        <v>302946</v>
       </c>
       <c r="G4" s="2">
-        <v>126728</v>
+        <v>344638</v>
       </c>
       <c r="H4" s="2">
-        <v>20.25</v>
+        <v>0.1</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" si="0"/>
-        <v>2.4961197557612764</v>
+        <v>1.1919999999999999</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="K4" s="4">
         <f>ROUND(SUM(G2:G200)/SUM(C2:C200), 3)</f>
-        <v>1.0820000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+        <v>0.875</v>
+      </c>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>126.3</v>
+        <v>0.15</v>
       </c>
       <c r="C5" s="2">
-        <v>157989</v>
+        <v>249136</v>
       </c>
       <c r="D5" s="2">
-        <v>12444</v>
+        <v>134313</v>
       </c>
       <c r="E5" s="3">
-        <v>22100</v>
+        <v>22350</v>
       </c>
       <c r="F5" s="2">
-        <v>183437</v>
+        <v>158508</v>
       </c>
       <c r="G5" s="2">
-        <v>319123</v>
+        <v>161978</v>
       </c>
       <c r="H5" s="2">
-        <v>30.25</v>
+        <v>23.1</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" si="0"/>
-        <v>2.0199064491831709</v>
+        <v>0.65</v>
       </c>
       <c r="J5" s="5">
-        <v>0.59321759259259255</v>
+        <v>0.61675925925925923</v>
       </c>
       <c r="K5" s="2">
-        <v>3.3159999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+        <v>1.129</v>
+      </c>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>92</v>
+        <v>0.05</v>
       </c>
       <c r="C6" s="2">
-        <v>109087</v>
+        <v>250638</v>
       </c>
       <c r="D6" s="2">
-        <v>49343</v>
+        <v>64835</v>
       </c>
       <c r="E6" s="3">
-        <v>22150</v>
+        <v>22400</v>
       </c>
       <c r="F6" s="2">
-        <v>112739</v>
+        <v>199380</v>
       </c>
       <c r="G6" s="2">
-        <v>146386</v>
+        <v>214915</v>
       </c>
       <c r="H6" s="2">
-        <v>45.8</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="I6" s="2">
         <f t="shared" si="0"/>
-        <v>1.341919752124451</v>
+        <v>0.85699999999999998</v>
       </c>
       <c r="J6" s="5">
-        <v>0.59466435185185185</v>
+        <v>0.61750000000000005</v>
       </c>
       <c r="K6" s="2">
-        <v>3.3159999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+        <v>1.141</v>
+      </c>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>62.75</v>
+        <v>0.1</v>
       </c>
       <c r="C7" s="2">
-        <v>176066</v>
+        <v>164967</v>
       </c>
       <c r="D7" s="2">
-        <v>44419</v>
+        <v>47993</v>
       </c>
       <c r="E7" s="3">
-        <v>22200</v>
+        <v>22450</v>
       </c>
       <c r="F7" s="2">
-        <v>106718</v>
+        <v>128456</v>
       </c>
       <c r="G7" s="2">
-        <v>153248</v>
+        <v>129827</v>
       </c>
       <c r="H7" s="2">
-        <v>66.650000000000006</v>
+        <v>122.75</v>
       </c>
       <c r="I7" s="2">
         <f t="shared" si="0"/>
-        <v>0.87040087240012265</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0.61908564814814815</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1.6020000000000001</v>
+      </c>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>40.200000000000003</v>
+        <v>0.05</v>
       </c>
       <c r="C8" s="2">
-        <v>83922</v>
+        <v>275361</v>
       </c>
       <c r="D8" s="2">
-        <v>27626</v>
+        <v>18300</v>
       </c>
       <c r="E8" s="3">
-        <v>22250</v>
+        <v>22500</v>
       </c>
       <c r="F8" s="2">
-        <v>19494</v>
+        <v>91310</v>
       </c>
       <c r="G8" s="2">
-        <v>29144</v>
+        <v>112971</v>
       </c>
       <c r="H8" s="2">
-        <v>93.7</v>
+        <v>172.55</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="0"/>
-        <v>0.34727485045637618</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2">
-        <v>23.65</v>
-      </c>
-      <c r="C9" s="2">
-        <v>126334</v>
-      </c>
-      <c r="D9" s="2">
-        <v>-1614</v>
-      </c>
-      <c r="E9" s="3">
-        <v>22300</v>
-      </c>
-      <c r="F9" s="2">
-        <v>27000</v>
-      </c>
-      <c r="G9" s="2">
-        <v>56378</v>
-      </c>
-      <c r="H9" s="2">
-        <v>127.4</v>
-      </c>
-      <c r="I9" s="2">
-        <f t="shared" si="0"/>
-        <v>0.44626149730080578</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2">
-        <v>12.2</v>
-      </c>
-      <c r="C10" s="2">
-        <v>88929</v>
-      </c>
-      <c r="D10" s="2">
-        <v>14746</v>
-      </c>
-      <c r="E10" s="3">
-        <v>22350</v>
-      </c>
-      <c r="F10" s="2">
-        <v>3912</v>
-      </c>
-      <c r="G10" s="2">
-        <v>8003</v>
-      </c>
-      <c r="H10" s="2">
-        <v>166.6</v>
-      </c>
-      <c r="I10" s="2">
-        <f t="shared" si="0"/>
-        <v>8.9993140595306373E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2">
-        <v>5.85</v>
-      </c>
-      <c r="C11" s="2">
-        <v>164982</v>
-      </c>
-      <c r="D11" s="2">
-        <v>41306</v>
-      </c>
-      <c r="E11" s="3">
-        <v>22400</v>
-      </c>
-      <c r="F11" s="2">
-        <v>3158</v>
-      </c>
-      <c r="G11" s="2">
-        <v>17709</v>
-      </c>
-      <c r="H11" s="2">
-        <v>209.45</v>
-      </c>
-      <c r="I11" s="2">
-        <f t="shared" si="0"/>
-        <v>0.10733898243444739</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2">
-        <v>2.75</v>
-      </c>
-      <c r="C12" s="2">
-        <v>87542</v>
-      </c>
-      <c r="D12" s="2">
-        <v>25882</v>
-      </c>
-      <c r="E12" s="3">
-        <v>22450</v>
-      </c>
-      <c r="F12" s="2">
-        <v>251</v>
-      </c>
-      <c r="G12" s="2">
-        <v>1348</v>
-      </c>
-      <c r="H12" s="2">
-        <v>256.89999999999998</v>
-      </c>
-      <c r="I12" s="2">
-        <f t="shared" si="0"/>
-        <v>1.5398323090630783E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+        <v>0.41</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0.61990740740740746</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1.613</v>
+      </c>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="I9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J9" s="5">
+        <v>0.62177083333333327</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1.163</v>
+      </c>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="I10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J10" s="5">
+        <v>0.62180555555555561</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1.613</v>
+      </c>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="I11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J11" s="5">
+        <v>0.62192129629629633</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1.163</v>
+      </c>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="I12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J12" s="5">
+        <v>0.62284722222222222</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1.625</v>
+      </c>
+      <c r="M12" s="8"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="I13" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="J13" s="5">
+        <v>0.62436342592592597</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1.5629999999999999</v>
+      </c>
+      <c r="M13" s="8"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="I14" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="J14" s="5">
+        <v>0.62542824074074077</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1.5529999999999999</v>
+      </c>
+      <c r="M14" s="8"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="I15" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="J15" s="5">
+        <v>0.62637731481481485</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1.4550000000000001</v>
+      </c>
+      <c r="M15" s="8"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="I16" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J16" s="5">
+        <v>0.62714120370370374</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1.9259999999999999</v>
+      </c>
+      <c r="M16" s="8"/>
+    </row>
+    <row r="17" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I17" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J17" s="5">
+        <v>0.6280324074074074</v>
+      </c>
+      <c r="K17" s="2">
+        <v>2.718</v>
+      </c>
+      <c r="M17" s="8"/>
+    </row>
+    <row r="18" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I18" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J18" s="5">
+        <v>0.6287962962962963</v>
+      </c>
+      <c r="K18" s="2">
+        <v>2.4169999999999998</v>
+      </c>
+      <c r="M18" s="8"/>
+    </row>
+    <row r="19" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I19" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J19" s="5">
+        <v>0.62956018518518519</v>
+      </c>
+      <c r="K19" s="2">
+        <v>2.3290000000000002</v>
+      </c>
+      <c r="M19" s="8"/>
+    </row>
+    <row r="20" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I20" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J20" s="5">
+        <v>0.63230324074074074</v>
+      </c>
+      <c r="K20" s="2">
+        <v>3.3860000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I21" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="22" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J21" s="5">
+        <v>0.63307870370370367</v>
+      </c>
+      <c r="K21" s="2">
+        <v>2.9329999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I22" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="23" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J22" s="5">
+        <v>0.63400462962962967</v>
+      </c>
+      <c r="K22" s="2">
+        <v>3.1019999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I23" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="24" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J23" s="5">
+        <v>0.6358449074074074</v>
+      </c>
+      <c r="K23" s="2">
+        <v>2.3109999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I24" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="25" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J24" s="5">
+        <v>0.63685185185185189</v>
+      </c>
+      <c r="K24" s="2">
+        <v>2.1960000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I25" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="26" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J25" s="5">
+        <v>0.63787037037037042</v>
+      </c>
+      <c r="K25" s="2">
+        <v>1.9419999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I26" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="27" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J26" s="5">
+        <v>0.63861111111111113</v>
+      </c>
+      <c r="K26" s="2">
+        <v>2.1219999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I27" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="28" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J27" s="5">
+        <v>0.63935185185185184</v>
+      </c>
+      <c r="K27" s="2">
+        <v>1.8360000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I28" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="29" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J28" s="5">
+        <v>0.64105324074074077</v>
+      </c>
+      <c r="K28" s="2">
+        <v>1.8220000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I29" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="30" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J29" s="5">
+        <v>0.64179398148148148</v>
+      </c>
+      <c r="K29" s="2">
+        <v>1.7769999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I30" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="31" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J30" s="5">
+        <v>0.64196759259259262</v>
+      </c>
+      <c r="K30" s="2">
+        <v>1.772</v>
+      </c>
+    </row>
+    <row r="31" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I31" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="32" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J31" s="5">
+        <v>0.64200231481481485</v>
+      </c>
+      <c r="K31" s="2">
+        <v>1.843</v>
+      </c>
+    </row>
+    <row r="32" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I32" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J32" s="5">
+        <v>0.6427546296296297</v>
+      </c>
+      <c r="K32" s="2">
+        <v>1.9810000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I33" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J33" s="5">
+        <v>0.6448032407407408</v>
+      </c>
+      <c r="K33" s="2">
+        <v>1.738</v>
+      </c>
+    </row>
+    <row r="34" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I34" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="35" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J34" s="5">
+        <v>0.64649305555555558</v>
+      </c>
+      <c r="K34" s="2">
+        <v>1.8779999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I35" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="36" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J35" s="5">
+        <v>0.81785879629629632</v>
+      </c>
+      <c r="K35" s="2">
+        <v>2.548</v>
+      </c>
+    </row>
+    <row r="36" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I36" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="37" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I37" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="38" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I38" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="39" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I39" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="40" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I40" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="41" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I41" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="42" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I42" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="43" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I43" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="44" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I44" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="45" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I45" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="46" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I46" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="47" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I47" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="48" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I48" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1224,7 +1347,7 @@
     </row>
     <row r="67" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I67" s="2" t="str">
-        <f t="shared" ref="I67:I130" si="1">IF(G67&gt;0, G67/C67, "")</f>
+        <f t="shared" ref="I67:I130" si="1">IF(G67&gt;0, ROUND(G67/C67,3), "")</f>
         <v/>
       </c>
     </row>
@@ -1608,7 +1731,7 @@
     </row>
     <row r="131" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I131" s="2" t="str">
-        <f t="shared" ref="I131:I150" si="2">IF(G131&gt;0, G131/C131, "")</f>
+        <f t="shared" ref="I131:I150" si="2">IF(G131&gt;0, ROUND(G131/C131,3), "")</f>
         <v/>
       </c>
     </row>
@@ -1727,15 +1850,27 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2" xr:uid="{96B84952-593E-4414-97B0-5B64851D6666}">
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K7:K10 J6 L6 M7:M10 J5 L3:L4 Q2" xr:uid="{4CBC4F7A-CAE0-4273-9B44-B686111ECF83}">
+      <formula1>"""3,5,10,15,20"""</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J10 L6:L10 L3:L4" xr:uid="{638F3690-EE2A-454A-9984-B221A0E4CF0F}">
+      <formula1>"""NIFTY,BANKNIFTY,FINNIFTY,MIDCPNIFTY,SENSEX"""</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2" xr:uid="{1CBDF931-DD4D-4825-A66A-4FEF531E64FA}">
       <formula1>"""28-Mar-2024,04-Apr-2024,10-Apr-2024,18-Apr-2024,25-Apr-2024,02-May-2024,30-May-2024,27-Jun-2024,26-Sep-2024,26-Dec-2024,26-Jun-2025,24-Dec-2025,25-Jun-2026,31-Dec-2026,24-Jun-2027,30-Dec-2027,29-Jun-2028,28-Dec-2028"""</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L4 J5:J10" xr:uid="{638F3690-EE2A-454A-9984-B221A0E4CF0F}">
-      <formula1>"""NIFTY,BANKNIFTY,FINNIFTY,MIDCPNIFTY,SENSEX"""</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2" xr:uid="{773D6187-3C21-4CFB-986C-BAAE6CF57711}">
+      <formula1>"""03-Apr-2024,10-Apr-2024,16-Apr-2024,24-Apr-2024,30-Apr-2024,29-May-2024,26-Jun-2024,25-Sep-2024,24-Dec-2024,26-Mar-2025"""</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2 K7:K10 J5:J6 L3:L4" xr:uid="{4B424003-7348-43CE-B3FE-DA8FF30059AE}">
-      <formula1>"""5,3,10,15,20"""</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2" xr:uid="{478B916E-0B19-492A-8B86-5940E735B419}">
+      <formula1>"""02-Apr-2024,09-Apr-2024,16-Apr-2024,23-Apr-2024,30-Apr-2024,28-May-2024,25-Jun-2024"""</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2" xr:uid="{4DA76A91-6DD4-4492-8D94-9A9CA490D58C}">
+      <formula1>"""NIFTY,BANKNIFTY,FINNIFTY,MIDCPNIFTY"""</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2" xr:uid="{C95600A7-9701-477B-B112-B3EEF3FCBA36}">
+      <formula1>""""""</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/option_chain.xlsx
+++ b/option_chain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cb4cecaa05735e09/Desktop/bipinmsit/tradetools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4830" documentId="11_F25DC773A252ABDACC1048C589D870065ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29CAC2BF-C259-4FD6-8B1B-F38AC8BB071B}"/>
+  <xr:revisionPtr revIDLastSave="4947" documentId="11_F25DC773A252ABDACC1048C589D870065ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97F029AA-F3D2-47C6-8CDB-89B098B01656}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="option_chain" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Call_LTP</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>MIDCPNIFTY</t>
+  </si>
+  <si>
+    <t>20"</t>
   </si>
 </sst>
 </file>
@@ -131,32 +134,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,11 +437,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R150"/>
+  <dimension ref="A1:R1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N28" sqref="N28"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -558,25 +553,25 @@
         <f>SUM(D2:D200)</f>
         <v>430243</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="4">
         <v>45379</v>
       </c>
-      <c r="N2" s="8">
+      <c r="N2" s="4">
         <v>45385</v>
       </c>
-      <c r="O2" s="8">
+      <c r="O2" s="4">
         <v>45384</v>
       </c>
-      <c r="P2" s="8">
+      <c r="P2" s="4">
         <v>45383</v>
       </c>
-      <c r="Q2" s="6">
-        <v>3</v>
-      </c>
-      <c r="R2" s="6">
+      <c r="Q2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="2">
         <v>22326.9</v>
       </c>
     </row>
@@ -616,10 +611,12 @@
         <f>SUM(F2:F200)</f>
         <v>1096108</v>
       </c>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
@@ -650,17 +647,19 @@
         <f t="shared" si="0"/>
         <v>1.1919999999999999</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="5">
         <f>ROUND(SUM(G2:G200)/SUM(C2:C200), 3)</f>
         <v>0.875</v>
       </c>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
@@ -691,16 +690,18 @@
         <f t="shared" si="0"/>
         <v>0.65</v>
       </c>
-      <c r="J5" s="5">
-        <v>0.61675925925925923</v>
-      </c>
-      <c r="K5" s="2">
-        <v>1.129</v>
-      </c>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
+      <c r="J5" s="6">
+        <v>0.85038194444444448</v>
+      </c>
+      <c r="K5">
+        <v>2.548</v>
+      </c>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
@@ -731,16 +732,14 @@
         <f t="shared" si="0"/>
         <v>0.85699999999999998</v>
       </c>
-      <c r="J6" s="5">
-        <v>0.61750000000000005</v>
-      </c>
-      <c r="K6" s="2">
-        <v>1.141</v>
-      </c>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
@@ -771,16 +770,14 @@
         <f t="shared" si="0"/>
         <v>0.78700000000000003</v>
       </c>
-      <c r="J7" s="5">
-        <v>0.61908564814814815</v>
-      </c>
-      <c r="K7" s="2">
-        <v>1.6020000000000001</v>
-      </c>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
@@ -811,1051 +808,4627 @@
         <f t="shared" si="0"/>
         <v>0.41</v>
       </c>
-      <c r="J8" s="5">
-        <v>0.61990740740740746</v>
-      </c>
-      <c r="K8" s="2">
-        <v>1.613</v>
-      </c>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="I9" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J9" s="5">
-        <v>0.62177083333333327</v>
-      </c>
-      <c r="K9" s="2">
-        <v>1.163</v>
-      </c>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="I10" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J10" s="5">
-        <v>0.62180555555555561</v>
-      </c>
-      <c r="K10" s="2">
-        <v>1.613</v>
-      </c>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="I11" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J11" s="5">
-        <v>0.62192129629629633</v>
-      </c>
-      <c r="K11" s="2">
-        <v>1.163</v>
-      </c>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="I12" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J12" s="5">
-        <v>0.62284722222222222</v>
-      </c>
-      <c r="K12" s="2">
-        <v>1.625</v>
-      </c>
-      <c r="M12" s="8"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="I13" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J13" s="5">
-        <v>0.62436342592592597</v>
-      </c>
-      <c r="K13" s="2">
-        <v>1.5629999999999999</v>
-      </c>
-      <c r="M13" s="8"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="I14" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J14" s="5">
-        <v>0.62542824074074077</v>
-      </c>
-      <c r="K14" s="2">
-        <v>1.5529999999999999</v>
-      </c>
-      <c r="M14" s="8"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="I15" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J15" s="5">
-        <v>0.62637731481481485</v>
-      </c>
-      <c r="K15" s="2">
-        <v>1.4550000000000001</v>
-      </c>
-      <c r="M15" s="8"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="I16" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J16" s="5">
-        <v>0.62714120370370374</v>
-      </c>
-      <c r="K16" s="2">
-        <v>1.9259999999999999</v>
-      </c>
-      <c r="M16" s="8"/>
-    </row>
-    <row r="17" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+    </row>
+    <row r="17" spans="9:17" x14ac:dyDescent="0.35">
       <c r="I17" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J17" s="5">
-        <v>0.6280324074074074</v>
-      </c>
-      <c r="K17" s="2">
-        <v>2.718</v>
-      </c>
-      <c r="M17" s="8"/>
-    </row>
-    <row r="18" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+    </row>
+    <row r="18" spans="9:17" x14ac:dyDescent="0.35">
       <c r="I18" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J18" s="5">
-        <v>0.6287962962962963</v>
-      </c>
-      <c r="K18" s="2">
-        <v>2.4169999999999998</v>
-      </c>
-      <c r="M18" s="8"/>
-    </row>
-    <row r="19" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
+    </row>
+    <row r="19" spans="9:17" x14ac:dyDescent="0.35">
       <c r="I19" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J19" s="5">
-        <v>0.62956018518518519</v>
-      </c>
-      <c r="K19" s="2">
-        <v>2.3290000000000002</v>
-      </c>
-      <c r="M19" s="8"/>
-    </row>
-    <row r="20" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+    </row>
+    <row r="20" spans="9:17" x14ac:dyDescent="0.35">
       <c r="I20" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J20" s="5">
-        <v>0.63230324074074074</v>
-      </c>
-      <c r="K20" s="2">
-        <v>3.3860000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+    </row>
+    <row r="21" spans="9:17" x14ac:dyDescent="0.35">
       <c r="I21" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J21" s="5">
-        <v>0.63307870370370367</v>
-      </c>
-      <c r="K21" s="2">
-        <v>2.9329999999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="J21"/>
+      <c r="K21"/>
+    </row>
+    <row r="22" spans="9:17" x14ac:dyDescent="0.35">
       <c r="I22" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J22" s="5">
-        <v>0.63400462962962967</v>
-      </c>
-      <c r="K22" s="2">
-        <v>3.1019999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="J22"/>
+      <c r="K22"/>
+    </row>
+    <row r="23" spans="9:17" x14ac:dyDescent="0.35">
       <c r="I23" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J23" s="5">
-        <v>0.6358449074074074</v>
-      </c>
-      <c r="K23" s="2">
-        <v>2.3109999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="J23"/>
+      <c r="K23"/>
+    </row>
+    <row r="24" spans="9:17" x14ac:dyDescent="0.35">
       <c r="I24" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J24" s="5">
-        <v>0.63685185185185189</v>
-      </c>
-      <c r="K24" s="2">
-        <v>2.1960000000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="J24"/>
+      <c r="K24"/>
+    </row>
+    <row r="25" spans="9:17" x14ac:dyDescent="0.35">
       <c r="I25" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J25" s="5">
-        <v>0.63787037037037042</v>
-      </c>
-      <c r="K25" s="2">
-        <v>1.9419999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="J25"/>
+      <c r="K25"/>
+    </row>
+    <row r="26" spans="9:17" x14ac:dyDescent="0.35">
       <c r="I26" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J26" s="5">
-        <v>0.63861111111111113</v>
-      </c>
-      <c r="K26" s="2">
-        <v>2.1219999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="J26"/>
+      <c r="K26"/>
+    </row>
+    <row r="27" spans="9:17" x14ac:dyDescent="0.35">
       <c r="I27" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J27" s="5">
-        <v>0.63935185185185184</v>
-      </c>
-      <c r="K27" s="2">
-        <v>1.8360000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="J27"/>
+      <c r="K27"/>
+    </row>
+    <row r="28" spans="9:17" x14ac:dyDescent="0.35">
       <c r="I28" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J28" s="5">
-        <v>0.64105324074074077</v>
-      </c>
-      <c r="K28" s="2">
-        <v>1.8220000000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="J28"/>
+      <c r="K28"/>
+    </row>
+    <row r="29" spans="9:17" x14ac:dyDescent="0.35">
       <c r="I29" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J29" s="5">
-        <v>0.64179398148148148</v>
-      </c>
-      <c r="K29" s="2">
-        <v>1.7769999999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="J29"/>
+      <c r="K29"/>
+    </row>
+    <row r="30" spans="9:17" x14ac:dyDescent="0.35">
       <c r="I30" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J30" s="5">
-        <v>0.64196759259259262</v>
-      </c>
-      <c r="K30" s="2">
-        <v>1.772</v>
-      </c>
-    </row>
-    <row r="31" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="J30"/>
+      <c r="K30"/>
+    </row>
+    <row r="31" spans="9:17" x14ac:dyDescent="0.35">
       <c r="I31" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J31" s="5">
-        <v>0.64200231481481485</v>
-      </c>
-      <c r="K31" s="2">
-        <v>1.843</v>
-      </c>
-    </row>
-    <row r="32" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="J31"/>
+      <c r="K31"/>
+    </row>
+    <row r="32" spans="9:17" x14ac:dyDescent="0.35">
       <c r="I32" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J32" s="5">
-        <v>0.6427546296296297</v>
-      </c>
-      <c r="K32" s="2">
-        <v>1.9810000000000001</v>
-      </c>
+      <c r="J32"/>
+      <c r="K32"/>
     </row>
     <row r="33" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I33" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J33" s="5">
-        <v>0.6448032407407408</v>
-      </c>
-      <c r="K33" s="2">
-        <v>1.738</v>
-      </c>
+      <c r="J33"/>
+      <c r="K33"/>
     </row>
     <row r="34" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I34" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J34" s="5">
-        <v>0.64649305555555558</v>
-      </c>
-      <c r="K34" s="2">
-        <v>1.8779999999999999</v>
-      </c>
+      <c r="J34"/>
+      <c r="K34"/>
     </row>
     <row r="35" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I35" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J35" s="5">
-        <v>0.81785879629629632</v>
-      </c>
-      <c r="K35" s="2">
-        <v>2.548</v>
-      </c>
+      <c r="J35"/>
+      <c r="K35"/>
     </row>
     <row r="36" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I36" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="J36"/>
+      <c r="K36"/>
     </row>
     <row r="37" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I37" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="J37"/>
+      <c r="K37"/>
     </row>
     <row r="38" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I38" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="J38"/>
+      <c r="K38"/>
     </row>
     <row r="39" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I39" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="J39"/>
+      <c r="K39"/>
     </row>
     <row r="40" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I40" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="J40"/>
+      <c r="K40"/>
     </row>
     <row r="41" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I41" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="J41"/>
+      <c r="K41"/>
     </row>
     <row r="42" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I42" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="J42"/>
+      <c r="K42"/>
     </row>
     <row r="43" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I43" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="J43"/>
+      <c r="K43"/>
     </row>
     <row r="44" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I44" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="J44"/>
+      <c r="K44"/>
     </row>
     <row r="45" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I45" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="J45"/>
+      <c r="K45"/>
     </row>
     <row r="46" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I46" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="J46"/>
+      <c r="K46"/>
     </row>
     <row r="47" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I47" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="J47"/>
+      <c r="K47"/>
     </row>
     <row r="48" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I48" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J48"/>
+      <c r="K48"/>
+    </row>
+    <row r="49" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I49" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="50" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J49"/>
+      <c r="K49"/>
+    </row>
+    <row r="50" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I50" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J50"/>
+      <c r="K50"/>
+    </row>
+    <row r="51" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I51" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="52" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J51"/>
+      <c r="K51"/>
+    </row>
+    <row r="52" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I52" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="53" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J52"/>
+      <c r="K52"/>
+    </row>
+    <row r="53" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I53" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="54" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J53"/>
+      <c r="K53"/>
+    </row>
+    <row r="54" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I54" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="55" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J54"/>
+      <c r="K54"/>
+    </row>
+    <row r="55" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I55" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="56" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J55"/>
+      <c r="K55"/>
+    </row>
+    <row r="56" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I56" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="57" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J56"/>
+      <c r="K56"/>
+    </row>
+    <row r="57" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I57" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="58" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J57"/>
+      <c r="K57"/>
+    </row>
+    <row r="58" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I58" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="59" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J58"/>
+      <c r="K58"/>
+    </row>
+    <row r="59" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I59" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="60" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J59"/>
+      <c r="K59"/>
+    </row>
+    <row r="60" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I60" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="61" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J60"/>
+      <c r="K60"/>
+    </row>
+    <row r="61" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I61" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="62" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J61"/>
+      <c r="K61"/>
+    </row>
+    <row r="62" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I62" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="63" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J62"/>
+      <c r="K62"/>
+    </row>
+    <row r="63" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I63" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="64" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J63"/>
+      <c r="K63"/>
+    </row>
+    <row r="64" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I64" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="65" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J64"/>
+      <c r="K64"/>
+    </row>
+    <row r="65" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I65" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="66" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J65"/>
+      <c r="K65"/>
+    </row>
+    <row r="66" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I66" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="67" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J66"/>
+      <c r="K66"/>
+    </row>
+    <row r="67" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I67" s="2" t="str">
         <f t="shared" ref="I67:I130" si="1">IF(G67&gt;0, ROUND(G67/C67,3), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="68" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J67"/>
+      <c r="K67"/>
+    </row>
+    <row r="68" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I68" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="69" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J68"/>
+      <c r="K68"/>
+    </row>
+    <row r="69" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I69" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="70" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J69"/>
+      <c r="K69"/>
+    </row>
+    <row r="70" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I70" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="71" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J70"/>
+      <c r="K70"/>
+    </row>
+    <row r="71" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I71" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="72" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J71"/>
+      <c r="K71"/>
+    </row>
+    <row r="72" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I72" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="73" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J72"/>
+      <c r="K72"/>
+    </row>
+    <row r="73" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I73" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="74" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J73"/>
+      <c r="K73"/>
+    </row>
+    <row r="74" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I74" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="75" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J74"/>
+      <c r="K74"/>
+    </row>
+    <row r="75" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I75" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="76" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J75"/>
+      <c r="K75"/>
+    </row>
+    <row r="76" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I76" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="77" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J76"/>
+      <c r="K76"/>
+    </row>
+    <row r="77" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I77" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="78" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J77"/>
+      <c r="K77"/>
+    </row>
+    <row r="78" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I78" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="79" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J78"/>
+      <c r="K78"/>
+    </row>
+    <row r="79" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I79" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="80" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J79"/>
+      <c r="K79"/>
+    </row>
+    <row r="80" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I80" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="81" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J80"/>
+      <c r="K80"/>
+    </row>
+    <row r="81" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I81" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="82" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J81"/>
+      <c r="K81"/>
+    </row>
+    <row r="82" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I82" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="83" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J82"/>
+      <c r="K82"/>
+    </row>
+    <row r="83" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I83" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="84" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J83"/>
+      <c r="K83"/>
+    </row>
+    <row r="84" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I84" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="85" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J84"/>
+      <c r="K84"/>
+    </row>
+    <row r="85" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I85" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="86" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J85"/>
+      <c r="K85"/>
+    </row>
+    <row r="86" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I86" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="87" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J86"/>
+      <c r="K86"/>
+    </row>
+    <row r="87" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I87" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="88" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J87"/>
+      <c r="K87"/>
+    </row>
+    <row r="88" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I88" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="89" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J88"/>
+      <c r="K88"/>
+    </row>
+    <row r="89" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I89" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="90" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J89"/>
+      <c r="K89"/>
+    </row>
+    <row r="90" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I90" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="91" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J90"/>
+      <c r="K90"/>
+    </row>
+    <row r="91" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I91" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="92" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J91"/>
+      <c r="K91"/>
+    </row>
+    <row r="92" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I92" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="93" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J92"/>
+      <c r="K92"/>
+    </row>
+    <row r="93" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I93" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="94" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J93"/>
+      <c r="K93"/>
+    </row>
+    <row r="94" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I94" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="95" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J94"/>
+      <c r="K94"/>
+    </row>
+    <row r="95" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I95" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="96" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J95"/>
+      <c r="K95"/>
+    </row>
+    <row r="96" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I96" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="97" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J96"/>
+      <c r="K96"/>
+    </row>
+    <row r="97" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I97" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="98" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J97"/>
+      <c r="K97"/>
+    </row>
+    <row r="98" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I98" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="99" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J98"/>
+      <c r="K98"/>
+    </row>
+    <row r="99" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I99" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="100" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J99"/>
+      <c r="K99"/>
+    </row>
+    <row r="100" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I100" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="101" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J100"/>
+      <c r="K100"/>
+    </row>
+    <row r="101" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I101" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="102" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J101"/>
+      <c r="K101"/>
+    </row>
+    <row r="102" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I102" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="103" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J102"/>
+      <c r="K102"/>
+    </row>
+    <row r="103" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I103" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="104" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J103"/>
+      <c r="K103"/>
+    </row>
+    <row r="104" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I104" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="105" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J104"/>
+      <c r="K104"/>
+    </row>
+    <row r="105" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I105" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="106" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J105"/>
+      <c r="K105"/>
+    </row>
+    <row r="106" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I106" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="107" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J106"/>
+      <c r="K106"/>
+    </row>
+    <row r="107" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I107" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="108" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J107"/>
+      <c r="K107"/>
+    </row>
+    <row r="108" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I108" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="109" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J108"/>
+      <c r="K108"/>
+    </row>
+    <row r="109" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I109" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="110" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J109"/>
+      <c r="K109"/>
+    </row>
+    <row r="110" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I110" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="111" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J110"/>
+      <c r="K110"/>
+    </row>
+    <row r="111" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I111" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="112" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J111"/>
+      <c r="K111"/>
+    </row>
+    <row r="112" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I112" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="113" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J112"/>
+      <c r="K112"/>
+    </row>
+    <row r="113" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I113" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="114" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J113"/>
+      <c r="K113"/>
+    </row>
+    <row r="114" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I114" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="115" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J114"/>
+      <c r="K114"/>
+    </row>
+    <row r="115" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I115" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="116" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J115"/>
+      <c r="K115"/>
+    </row>
+    <row r="116" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I116" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="117" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J116"/>
+      <c r="K116"/>
+    </row>
+    <row r="117" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I117" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="118" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J117"/>
+      <c r="K117"/>
+    </row>
+    <row r="118" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I118" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="119" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J118"/>
+      <c r="K118"/>
+    </row>
+    <row r="119" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I119" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="120" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J119"/>
+      <c r="K119"/>
+    </row>
+    <row r="120" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I120" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="121" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J120"/>
+      <c r="K120"/>
+    </row>
+    <row r="121" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I121" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="122" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J121"/>
+      <c r="K121"/>
+    </row>
+    <row r="122" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I122" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="123" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J122"/>
+      <c r="K122"/>
+    </row>
+    <row r="123" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I123" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="124" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J123"/>
+      <c r="K123"/>
+    </row>
+    <row r="124" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I124" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="125" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J124"/>
+      <c r="K124"/>
+    </row>
+    <row r="125" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I125" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="126" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J125"/>
+      <c r="K125"/>
+    </row>
+    <row r="126" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I126" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="127" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J126"/>
+      <c r="K126"/>
+    </row>
+    <row r="127" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I127" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="128" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J127"/>
+      <c r="K127"/>
+    </row>
+    <row r="128" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I128" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="129" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J128"/>
+      <c r="K128"/>
+    </row>
+    <row r="129" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I129" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="130" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J129"/>
+      <c r="K129"/>
+    </row>
+    <row r="130" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I130" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="131" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J130"/>
+      <c r="K130"/>
+    </row>
+    <row r="131" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I131" s="2" t="str">
         <f t="shared" ref="I131:I150" si="2">IF(G131&gt;0, ROUND(G131/C131,3), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="132" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J131"/>
+      <c r="K131"/>
+    </row>
+    <row r="132" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I132" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="133" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J132"/>
+      <c r="K132"/>
+    </row>
+    <row r="133" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I133" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="134" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J133"/>
+      <c r="K133"/>
+    </row>
+    <row r="134" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I134" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="135" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J134"/>
+      <c r="K134"/>
+    </row>
+    <row r="135" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I135" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="136" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J135"/>
+      <c r="K135"/>
+    </row>
+    <row r="136" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I136" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="137" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J136"/>
+      <c r="K136"/>
+    </row>
+    <row r="137" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I137" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="138" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J137"/>
+      <c r="K137"/>
+    </row>
+    <row r="138" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I138" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="139" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J138"/>
+      <c r="K138"/>
+    </row>
+    <row r="139" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I139" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="140" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J139"/>
+      <c r="K139"/>
+    </row>
+    <row r="140" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I140" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="141" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J140"/>
+      <c r="K140"/>
+    </row>
+    <row r="141" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I141" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="142" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J141"/>
+      <c r="K141"/>
+    </row>
+    <row r="142" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I142" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="143" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J142"/>
+      <c r="K142"/>
+    </row>
+    <row r="143" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I143" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="144" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J143"/>
+      <c r="K143"/>
+    </row>
+    <row r="144" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I144" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="145" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J144"/>
+      <c r="K144"/>
+    </row>
+    <row r="145" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I145" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="146" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J145"/>
+      <c r="K145"/>
+    </row>
+    <row r="146" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I146" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="147" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J146"/>
+      <c r="K146"/>
+    </row>
+    <row r="147" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I147" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="148" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J147"/>
+      <c r="K147"/>
+    </row>
+    <row r="148" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I148" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="149" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J148"/>
+      <c r="K148"/>
+    </row>
+    <row r="149" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I149" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="150" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="J149"/>
+      <c r="K149"/>
+    </row>
+    <row r="150" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I150" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="J150"/>
+      <c r="K150"/>
+    </row>
+    <row r="151" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="J151"/>
+      <c r="K151"/>
+    </row>
+    <row r="152" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="J152"/>
+      <c r="K152"/>
+    </row>
+    <row r="153" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="J153"/>
+      <c r="K153"/>
+    </row>
+    <row r="154" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="J154"/>
+      <c r="K154"/>
+    </row>
+    <row r="155" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="J155"/>
+      <c r="K155"/>
+    </row>
+    <row r="156" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="J156"/>
+      <c r="K156"/>
+    </row>
+    <row r="157" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="J157"/>
+      <c r="K157"/>
+    </row>
+    <row r="158" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="J158"/>
+      <c r="K158"/>
+    </row>
+    <row r="159" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="J159"/>
+      <c r="K159"/>
+    </row>
+    <row r="160" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="J160"/>
+      <c r="K160"/>
+    </row>
+    <row r="161" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J161"/>
+      <c r="K161"/>
+    </row>
+    <row r="162" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J162"/>
+      <c r="K162"/>
+    </row>
+    <row r="163" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J163"/>
+      <c r="K163"/>
+    </row>
+    <row r="164" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J164"/>
+      <c r="K164"/>
+    </row>
+    <row r="165" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J165"/>
+      <c r="K165"/>
+    </row>
+    <row r="166" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J166"/>
+      <c r="K166"/>
+    </row>
+    <row r="167" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J167"/>
+      <c r="K167"/>
+    </row>
+    <row r="168" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J168"/>
+      <c r="K168"/>
+    </row>
+    <row r="169" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J169"/>
+      <c r="K169"/>
+    </row>
+    <row r="170" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J170"/>
+      <c r="K170"/>
+    </row>
+    <row r="171" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J171"/>
+      <c r="K171"/>
+    </row>
+    <row r="172" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J172"/>
+      <c r="K172"/>
+    </row>
+    <row r="173" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J173"/>
+      <c r="K173"/>
+    </row>
+    <row r="174" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J174"/>
+      <c r="K174"/>
+    </row>
+    <row r="175" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J175"/>
+      <c r="K175"/>
+    </row>
+    <row r="176" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J176"/>
+      <c r="K176"/>
+    </row>
+    <row r="177" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J177"/>
+      <c r="K177"/>
+    </row>
+    <row r="178" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J178"/>
+      <c r="K178"/>
+    </row>
+    <row r="179" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J179"/>
+      <c r="K179"/>
+    </row>
+    <row r="180" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J180"/>
+      <c r="K180"/>
+    </row>
+    <row r="181" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J181"/>
+      <c r="K181"/>
+    </row>
+    <row r="182" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J182"/>
+      <c r="K182"/>
+    </row>
+    <row r="183" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J183"/>
+      <c r="K183"/>
+    </row>
+    <row r="184" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J184"/>
+      <c r="K184"/>
+    </row>
+    <row r="185" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J185"/>
+      <c r="K185"/>
+    </row>
+    <row r="186" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J186"/>
+      <c r="K186"/>
+    </row>
+    <row r="187" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J187"/>
+      <c r="K187"/>
+    </row>
+    <row r="188" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J188"/>
+      <c r="K188"/>
+    </row>
+    <row r="189" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J189"/>
+      <c r="K189"/>
+    </row>
+    <row r="190" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J190"/>
+      <c r="K190"/>
+    </row>
+    <row r="191" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J191"/>
+      <c r="K191"/>
+    </row>
+    <row r="192" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J192"/>
+      <c r="K192"/>
+    </row>
+    <row r="193" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J193"/>
+      <c r="K193"/>
+    </row>
+    <row r="194" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J194"/>
+      <c r="K194"/>
+    </row>
+    <row r="195" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J195"/>
+      <c r="K195"/>
+    </row>
+    <row r="196" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J196"/>
+      <c r="K196"/>
+    </row>
+    <row r="197" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J197"/>
+      <c r="K197"/>
+    </row>
+    <row r="198" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J198"/>
+      <c r="K198"/>
+    </row>
+    <row r="199" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J199"/>
+      <c r="K199"/>
+    </row>
+    <row r="200" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J200"/>
+      <c r="K200"/>
+    </row>
+    <row r="201" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J201"/>
+      <c r="K201"/>
+    </row>
+    <row r="202" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J202"/>
+      <c r="K202"/>
+    </row>
+    <row r="203" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J203"/>
+      <c r="K203"/>
+    </row>
+    <row r="204" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J204"/>
+      <c r="K204"/>
+    </row>
+    <row r="205" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J205"/>
+      <c r="K205"/>
+    </row>
+    <row r="206" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J206"/>
+      <c r="K206"/>
+    </row>
+    <row r="207" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J207"/>
+      <c r="K207"/>
+    </row>
+    <row r="208" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J208"/>
+      <c r="K208"/>
+    </row>
+    <row r="209" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J209"/>
+      <c r="K209"/>
+    </row>
+    <row r="210" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J210"/>
+      <c r="K210"/>
+    </row>
+    <row r="211" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J211"/>
+      <c r="K211"/>
+    </row>
+    <row r="212" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J212"/>
+      <c r="K212"/>
+    </row>
+    <row r="213" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J213"/>
+      <c r="K213"/>
+    </row>
+    <row r="214" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J214"/>
+      <c r="K214"/>
+    </row>
+    <row r="215" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J215"/>
+      <c r="K215"/>
+    </row>
+    <row r="216" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J216"/>
+      <c r="K216"/>
+    </row>
+    <row r="217" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J217"/>
+      <c r="K217"/>
+    </row>
+    <row r="218" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J218"/>
+      <c r="K218"/>
+    </row>
+    <row r="219" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J219"/>
+      <c r="K219"/>
+    </row>
+    <row r="220" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J220"/>
+      <c r="K220"/>
+    </row>
+    <row r="221" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J221"/>
+      <c r="K221"/>
+    </row>
+    <row r="222" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J222"/>
+      <c r="K222"/>
+    </row>
+    <row r="223" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J223"/>
+      <c r="K223"/>
+    </row>
+    <row r="224" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J224"/>
+      <c r="K224"/>
+    </row>
+    <row r="225" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J225"/>
+      <c r="K225"/>
+    </row>
+    <row r="226" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J226"/>
+      <c r="K226"/>
+    </row>
+    <row r="227" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J227"/>
+      <c r="K227"/>
+    </row>
+    <row r="228" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J228"/>
+      <c r="K228"/>
+    </row>
+    <row r="229" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J229"/>
+      <c r="K229"/>
+    </row>
+    <row r="230" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J230"/>
+      <c r="K230"/>
+    </row>
+    <row r="231" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J231"/>
+      <c r="K231"/>
+    </row>
+    <row r="232" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J232"/>
+      <c r="K232"/>
+    </row>
+    <row r="233" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J233"/>
+      <c r="K233"/>
+    </row>
+    <row r="234" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J234"/>
+      <c r="K234"/>
+    </row>
+    <row r="235" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J235"/>
+      <c r="K235"/>
+    </row>
+    <row r="236" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J236"/>
+      <c r="K236"/>
+    </row>
+    <row r="237" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J237"/>
+      <c r="K237"/>
+    </row>
+    <row r="238" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J238"/>
+      <c r="K238"/>
+    </row>
+    <row r="239" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J239"/>
+      <c r="K239"/>
+    </row>
+    <row r="240" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J240"/>
+      <c r="K240"/>
+    </row>
+    <row r="241" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J241"/>
+      <c r="K241"/>
+    </row>
+    <row r="242" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J242"/>
+      <c r="K242"/>
+    </row>
+    <row r="243" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J243"/>
+      <c r="K243"/>
+    </row>
+    <row r="244" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J244"/>
+      <c r="K244"/>
+    </row>
+    <row r="245" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J245"/>
+      <c r="K245"/>
+    </row>
+    <row r="246" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J246"/>
+      <c r="K246"/>
+    </row>
+    <row r="247" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J247"/>
+      <c r="K247"/>
+    </row>
+    <row r="248" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J248"/>
+      <c r="K248"/>
+    </row>
+    <row r="249" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J249"/>
+      <c r="K249"/>
+    </row>
+    <row r="250" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J250"/>
+      <c r="K250"/>
+    </row>
+    <row r="251" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J251"/>
+      <c r="K251"/>
+    </row>
+    <row r="252" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J252"/>
+      <c r="K252"/>
+    </row>
+    <row r="253" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J253"/>
+      <c r="K253"/>
+    </row>
+    <row r="254" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J254"/>
+      <c r="K254"/>
+    </row>
+    <row r="255" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J255"/>
+      <c r="K255"/>
+    </row>
+    <row r="256" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J256"/>
+      <c r="K256"/>
+    </row>
+    <row r="257" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J257"/>
+      <c r="K257"/>
+    </row>
+    <row r="258" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J258"/>
+      <c r="K258"/>
+    </row>
+    <row r="259" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J259"/>
+      <c r="K259"/>
+    </row>
+    <row r="260" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J260"/>
+      <c r="K260"/>
+    </row>
+    <row r="261" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J261"/>
+      <c r="K261"/>
+    </row>
+    <row r="262" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J262"/>
+      <c r="K262"/>
+    </row>
+    <row r="263" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J263"/>
+      <c r="K263"/>
+    </row>
+    <row r="264" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J264"/>
+      <c r="K264"/>
+    </row>
+    <row r="265" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J265"/>
+      <c r="K265"/>
+    </row>
+    <row r="266" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J266"/>
+      <c r="K266"/>
+    </row>
+    <row r="267" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J267"/>
+      <c r="K267"/>
+    </row>
+    <row r="268" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J268"/>
+      <c r="K268"/>
+    </row>
+    <row r="269" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J269"/>
+      <c r="K269"/>
+    </row>
+    <row r="270" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J270"/>
+      <c r="K270"/>
+    </row>
+    <row r="271" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J271"/>
+      <c r="K271"/>
+    </row>
+    <row r="272" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J272"/>
+      <c r="K272"/>
+    </row>
+    <row r="273" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J273"/>
+      <c r="K273"/>
+    </row>
+    <row r="274" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J274"/>
+      <c r="K274"/>
+    </row>
+    <row r="275" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J275"/>
+      <c r="K275"/>
+    </row>
+    <row r="276" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J276"/>
+      <c r="K276"/>
+    </row>
+    <row r="277" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J277"/>
+      <c r="K277"/>
+    </row>
+    <row r="278" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J278"/>
+      <c r="K278"/>
+    </row>
+    <row r="279" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J279"/>
+      <c r="K279"/>
+    </row>
+    <row r="280" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J280"/>
+      <c r="K280"/>
+    </row>
+    <row r="281" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J281"/>
+      <c r="K281"/>
+    </row>
+    <row r="282" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J282"/>
+      <c r="K282"/>
+    </row>
+    <row r="283" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J283"/>
+      <c r="K283"/>
+    </row>
+    <row r="284" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J284"/>
+      <c r="K284"/>
+    </row>
+    <row r="285" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J285"/>
+      <c r="K285"/>
+    </row>
+    <row r="286" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J286"/>
+      <c r="K286"/>
+    </row>
+    <row r="287" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J287"/>
+      <c r="K287"/>
+    </row>
+    <row r="288" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J288"/>
+      <c r="K288"/>
+    </row>
+    <row r="289" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J289"/>
+      <c r="K289"/>
+    </row>
+    <row r="290" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J290"/>
+      <c r="K290"/>
+    </row>
+    <row r="291" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J291"/>
+      <c r="K291"/>
+    </row>
+    <row r="292" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J292"/>
+      <c r="K292"/>
+    </row>
+    <row r="293" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J293"/>
+      <c r="K293"/>
+    </row>
+    <row r="294" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J294"/>
+      <c r="K294"/>
+    </row>
+    <row r="295" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J295"/>
+      <c r="K295"/>
+    </row>
+    <row r="296" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J296"/>
+      <c r="K296"/>
+    </row>
+    <row r="297" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J297"/>
+      <c r="K297"/>
+    </row>
+    <row r="298" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J298"/>
+      <c r="K298"/>
+    </row>
+    <row r="299" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J299"/>
+      <c r="K299"/>
+    </row>
+    <row r="300" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J300"/>
+      <c r="K300"/>
+    </row>
+    <row r="301" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J301"/>
+      <c r="K301"/>
+    </row>
+    <row r="302" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J302"/>
+      <c r="K302"/>
+    </row>
+    <row r="303" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J303"/>
+      <c r="K303"/>
+    </row>
+    <row r="304" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J304"/>
+      <c r="K304"/>
+    </row>
+    <row r="305" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J305"/>
+      <c r="K305"/>
+    </row>
+    <row r="306" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J306"/>
+      <c r="K306"/>
+    </row>
+    <row r="307" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J307"/>
+      <c r="K307"/>
+    </row>
+    <row r="308" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J308"/>
+      <c r="K308"/>
+    </row>
+    <row r="309" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J309"/>
+      <c r="K309"/>
+    </row>
+    <row r="310" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J310"/>
+      <c r="K310"/>
+    </row>
+    <row r="311" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J311"/>
+      <c r="K311"/>
+    </row>
+    <row r="312" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J312"/>
+      <c r="K312"/>
+    </row>
+    <row r="313" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J313"/>
+      <c r="K313"/>
+    </row>
+    <row r="314" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J314"/>
+      <c r="K314"/>
+    </row>
+    <row r="315" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J315"/>
+      <c r="K315"/>
+    </row>
+    <row r="316" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J316"/>
+      <c r="K316"/>
+    </row>
+    <row r="317" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J317"/>
+      <c r="K317"/>
+    </row>
+    <row r="318" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J318"/>
+      <c r="K318"/>
+    </row>
+    <row r="319" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J319"/>
+      <c r="K319"/>
+    </row>
+    <row r="320" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J320"/>
+      <c r="K320"/>
+    </row>
+    <row r="321" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J321"/>
+      <c r="K321"/>
+    </row>
+    <row r="322" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J322"/>
+      <c r="K322"/>
+    </row>
+    <row r="323" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J323"/>
+      <c r="K323"/>
+    </row>
+    <row r="324" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J324"/>
+      <c r="K324"/>
+    </row>
+    <row r="325" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J325"/>
+      <c r="K325"/>
+    </row>
+    <row r="326" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J326"/>
+      <c r="K326"/>
+    </row>
+    <row r="327" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J327"/>
+      <c r="K327"/>
+    </row>
+    <row r="328" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J328"/>
+      <c r="K328"/>
+    </row>
+    <row r="329" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J329"/>
+      <c r="K329"/>
+    </row>
+    <row r="330" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J330"/>
+      <c r="K330"/>
+    </row>
+    <row r="331" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J331"/>
+      <c r="K331"/>
+    </row>
+    <row r="332" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J332"/>
+      <c r="K332"/>
+    </row>
+    <row r="333" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J333"/>
+      <c r="K333"/>
+    </row>
+    <row r="334" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J334"/>
+      <c r="K334"/>
+    </row>
+    <row r="335" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J335"/>
+      <c r="K335"/>
+    </row>
+    <row r="336" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J336"/>
+      <c r="K336"/>
+    </row>
+    <row r="337" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J337"/>
+      <c r="K337"/>
+    </row>
+    <row r="338" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J338"/>
+      <c r="K338"/>
+    </row>
+    <row r="339" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J339"/>
+      <c r="K339"/>
+    </row>
+    <row r="340" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J340"/>
+      <c r="K340"/>
+    </row>
+    <row r="341" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J341"/>
+      <c r="K341"/>
+    </row>
+    <row r="342" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J342"/>
+      <c r="K342"/>
+    </row>
+    <row r="343" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J343"/>
+      <c r="K343"/>
+    </row>
+    <row r="344" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J344"/>
+      <c r="K344"/>
+    </row>
+    <row r="345" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J345"/>
+      <c r="K345"/>
+    </row>
+    <row r="346" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J346"/>
+      <c r="K346"/>
+    </row>
+    <row r="347" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J347"/>
+      <c r="K347"/>
+    </row>
+    <row r="348" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J348"/>
+      <c r="K348"/>
+    </row>
+    <row r="349" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J349"/>
+      <c r="K349"/>
+    </row>
+    <row r="350" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J350"/>
+      <c r="K350"/>
+    </row>
+    <row r="351" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J351"/>
+      <c r="K351"/>
+    </row>
+    <row r="352" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J352"/>
+      <c r="K352"/>
+    </row>
+    <row r="353" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J353"/>
+      <c r="K353"/>
+    </row>
+    <row r="354" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J354"/>
+      <c r="K354"/>
+    </row>
+    <row r="355" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J355"/>
+      <c r="K355"/>
+    </row>
+    <row r="356" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J356"/>
+      <c r="K356"/>
+    </row>
+    <row r="357" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J357"/>
+      <c r="K357"/>
+    </row>
+    <row r="358" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J358"/>
+      <c r="K358"/>
+    </row>
+    <row r="359" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J359"/>
+      <c r="K359"/>
+    </row>
+    <row r="360" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J360"/>
+      <c r="K360"/>
+    </row>
+    <row r="361" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J361"/>
+      <c r="K361"/>
+    </row>
+    <row r="362" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J362"/>
+      <c r="K362"/>
+    </row>
+    <row r="363" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J363"/>
+      <c r="K363"/>
+    </row>
+    <row r="364" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J364"/>
+      <c r="K364"/>
+    </row>
+    <row r="365" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J365"/>
+      <c r="K365"/>
+    </row>
+    <row r="366" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J366"/>
+      <c r="K366"/>
+    </row>
+    <row r="367" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J367"/>
+      <c r="K367"/>
+    </row>
+    <row r="368" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J368"/>
+      <c r="K368"/>
+    </row>
+    <row r="369" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J369"/>
+      <c r="K369"/>
+    </row>
+    <row r="370" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J370"/>
+      <c r="K370"/>
+    </row>
+    <row r="371" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J371"/>
+      <c r="K371"/>
+    </row>
+    <row r="372" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J372"/>
+      <c r="K372"/>
+    </row>
+    <row r="373" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J373"/>
+      <c r="K373"/>
+    </row>
+    <row r="374" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J374"/>
+      <c r="K374"/>
+    </row>
+    <row r="375" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J375"/>
+      <c r="K375"/>
+    </row>
+    <row r="376" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J376"/>
+      <c r="K376"/>
+    </row>
+    <row r="377" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J377"/>
+      <c r="K377"/>
+    </row>
+    <row r="378" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J378"/>
+      <c r="K378"/>
+    </row>
+    <row r="379" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J379"/>
+      <c r="K379"/>
+    </row>
+    <row r="380" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J380"/>
+      <c r="K380"/>
+    </row>
+    <row r="381" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J381"/>
+      <c r="K381"/>
+    </row>
+    <row r="382" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J382"/>
+      <c r="K382"/>
+    </row>
+    <row r="383" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J383"/>
+      <c r="K383"/>
+    </row>
+    <row r="384" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J384"/>
+      <c r="K384"/>
+    </row>
+    <row r="385" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J385"/>
+      <c r="K385"/>
+    </row>
+    <row r="386" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J386"/>
+      <c r="K386"/>
+    </row>
+    <row r="387" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J387"/>
+      <c r="K387"/>
+    </row>
+    <row r="388" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J388"/>
+      <c r="K388"/>
+    </row>
+    <row r="389" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J389"/>
+      <c r="K389"/>
+    </row>
+    <row r="390" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J390"/>
+      <c r="K390"/>
+    </row>
+    <row r="391" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J391"/>
+      <c r="K391"/>
+    </row>
+    <row r="392" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J392"/>
+      <c r="K392"/>
+    </row>
+    <row r="393" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J393"/>
+      <c r="K393"/>
+    </row>
+    <row r="394" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J394"/>
+      <c r="K394"/>
+    </row>
+    <row r="395" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J395"/>
+      <c r="K395"/>
+    </row>
+    <row r="396" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J396"/>
+      <c r="K396"/>
+    </row>
+    <row r="397" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J397"/>
+      <c r="K397"/>
+    </row>
+    <row r="398" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J398"/>
+      <c r="K398"/>
+    </row>
+    <row r="399" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J399"/>
+      <c r="K399"/>
+    </row>
+    <row r="400" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J400"/>
+      <c r="K400"/>
+    </row>
+    <row r="401" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J401"/>
+      <c r="K401"/>
+    </row>
+    <row r="402" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J402"/>
+      <c r="K402"/>
+    </row>
+    <row r="403" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J403"/>
+      <c r="K403"/>
+    </row>
+    <row r="404" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J404"/>
+      <c r="K404"/>
+    </row>
+    <row r="405" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J405"/>
+      <c r="K405"/>
+    </row>
+    <row r="406" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J406"/>
+      <c r="K406"/>
+    </row>
+    <row r="407" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J407"/>
+      <c r="K407"/>
+    </row>
+    <row r="408" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J408"/>
+      <c r="K408"/>
+    </row>
+    <row r="409" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J409"/>
+      <c r="K409"/>
+    </row>
+    <row r="410" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J410"/>
+      <c r="K410"/>
+    </row>
+    <row r="411" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J411"/>
+      <c r="K411"/>
+    </row>
+    <row r="412" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J412"/>
+      <c r="K412"/>
+    </row>
+    <row r="413" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J413"/>
+      <c r="K413"/>
+    </row>
+    <row r="414" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J414"/>
+      <c r="K414"/>
+    </row>
+    <row r="415" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J415"/>
+      <c r="K415"/>
+    </row>
+    <row r="416" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J416"/>
+      <c r="K416"/>
+    </row>
+    <row r="417" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J417"/>
+      <c r="K417"/>
+    </row>
+    <row r="418" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J418"/>
+      <c r="K418"/>
+    </row>
+    <row r="419" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J419"/>
+      <c r="K419"/>
+    </row>
+    <row r="420" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J420"/>
+      <c r="K420"/>
+    </row>
+    <row r="421" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J421"/>
+      <c r="K421"/>
+    </row>
+    <row r="422" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J422"/>
+      <c r="K422"/>
+    </row>
+    <row r="423" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J423"/>
+      <c r="K423"/>
+    </row>
+    <row r="424" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J424"/>
+      <c r="K424"/>
+    </row>
+    <row r="425" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J425"/>
+      <c r="K425"/>
+    </row>
+    <row r="426" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J426"/>
+      <c r="K426"/>
+    </row>
+    <row r="427" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J427"/>
+      <c r="K427"/>
+    </row>
+    <row r="428" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J428"/>
+      <c r="K428"/>
+    </row>
+    <row r="429" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J429"/>
+      <c r="K429"/>
+    </row>
+    <row r="430" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J430"/>
+      <c r="K430"/>
+    </row>
+    <row r="431" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J431"/>
+      <c r="K431"/>
+    </row>
+    <row r="432" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J432"/>
+      <c r="K432"/>
+    </row>
+    <row r="433" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J433"/>
+      <c r="K433"/>
+    </row>
+    <row r="434" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J434"/>
+      <c r="K434"/>
+    </row>
+    <row r="435" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J435"/>
+      <c r="K435"/>
+    </row>
+    <row r="436" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J436"/>
+      <c r="K436"/>
+    </row>
+    <row r="437" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J437"/>
+      <c r="K437"/>
+    </row>
+    <row r="438" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J438"/>
+      <c r="K438"/>
+    </row>
+    <row r="439" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J439"/>
+      <c r="K439"/>
+    </row>
+    <row r="440" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J440"/>
+      <c r="K440"/>
+    </row>
+    <row r="441" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J441"/>
+      <c r="K441"/>
+    </row>
+    <row r="442" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J442"/>
+      <c r="K442"/>
+    </row>
+    <row r="443" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J443"/>
+      <c r="K443"/>
+    </row>
+    <row r="444" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J444"/>
+      <c r="K444"/>
+    </row>
+    <row r="445" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J445"/>
+      <c r="K445"/>
+    </row>
+    <row r="446" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J446"/>
+      <c r="K446"/>
+    </row>
+    <row r="447" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J447"/>
+      <c r="K447"/>
+    </row>
+    <row r="448" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J448"/>
+      <c r="K448"/>
+    </row>
+    <row r="449" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J449"/>
+      <c r="K449"/>
+    </row>
+    <row r="450" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J450"/>
+      <c r="K450"/>
+    </row>
+    <row r="451" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J451"/>
+      <c r="K451"/>
+    </row>
+    <row r="452" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J452"/>
+      <c r="K452"/>
+    </row>
+    <row r="453" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J453"/>
+      <c r="K453"/>
+    </row>
+    <row r="454" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J454"/>
+      <c r="K454"/>
+    </row>
+    <row r="455" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J455"/>
+      <c r="K455"/>
+    </row>
+    <row r="456" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J456"/>
+      <c r="K456"/>
+    </row>
+    <row r="457" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J457"/>
+      <c r="K457"/>
+    </row>
+    <row r="458" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J458"/>
+      <c r="K458"/>
+    </row>
+    <row r="459" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J459"/>
+      <c r="K459"/>
+    </row>
+    <row r="460" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J460"/>
+      <c r="K460"/>
+    </row>
+    <row r="461" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J461"/>
+      <c r="K461"/>
+    </row>
+    <row r="462" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J462"/>
+      <c r="K462"/>
+    </row>
+    <row r="463" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J463"/>
+      <c r="K463"/>
+    </row>
+    <row r="464" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J464"/>
+      <c r="K464"/>
+    </row>
+    <row r="465" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J465"/>
+      <c r="K465"/>
+    </row>
+    <row r="466" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J466"/>
+      <c r="K466"/>
+    </row>
+    <row r="467" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J467"/>
+      <c r="K467"/>
+    </row>
+    <row r="468" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J468"/>
+      <c r="K468"/>
+    </row>
+    <row r="469" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J469"/>
+      <c r="K469"/>
+    </row>
+    <row r="470" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J470"/>
+      <c r="K470"/>
+    </row>
+    <row r="471" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J471"/>
+      <c r="K471"/>
+    </row>
+    <row r="472" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J472"/>
+      <c r="K472"/>
+    </row>
+    <row r="473" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J473"/>
+      <c r="K473"/>
+    </row>
+    <row r="474" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J474"/>
+      <c r="K474"/>
+    </row>
+    <row r="475" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J475"/>
+      <c r="K475"/>
+    </row>
+    <row r="476" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J476"/>
+      <c r="K476"/>
+    </row>
+    <row r="477" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J477"/>
+      <c r="K477"/>
+    </row>
+    <row r="478" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J478"/>
+      <c r="K478"/>
+    </row>
+    <row r="479" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J479"/>
+      <c r="K479"/>
+    </row>
+    <row r="480" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J480"/>
+      <c r="K480"/>
+    </row>
+    <row r="481" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J481"/>
+      <c r="K481"/>
+    </row>
+    <row r="482" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J482"/>
+      <c r="K482"/>
+    </row>
+    <row r="483" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J483"/>
+      <c r="K483"/>
+    </row>
+    <row r="484" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J484"/>
+      <c r="K484"/>
+    </row>
+    <row r="485" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J485"/>
+      <c r="K485"/>
+    </row>
+    <row r="486" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J486"/>
+      <c r="K486"/>
+    </row>
+    <row r="487" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J487"/>
+      <c r="K487"/>
+    </row>
+    <row r="488" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J488"/>
+      <c r="K488"/>
+    </row>
+    <row r="489" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J489"/>
+      <c r="K489"/>
+    </row>
+    <row r="490" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J490"/>
+      <c r="K490"/>
+    </row>
+    <row r="491" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J491"/>
+      <c r="K491"/>
+    </row>
+    <row r="492" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J492"/>
+      <c r="K492"/>
+    </row>
+    <row r="493" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J493"/>
+      <c r="K493"/>
+    </row>
+    <row r="494" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J494"/>
+      <c r="K494"/>
+    </row>
+    <row r="495" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J495"/>
+      <c r="K495"/>
+    </row>
+    <row r="496" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J496"/>
+      <c r="K496"/>
+    </row>
+    <row r="497" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J497"/>
+      <c r="K497"/>
+    </row>
+    <row r="498" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J498"/>
+      <c r="K498"/>
+    </row>
+    <row r="499" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J499"/>
+      <c r="K499"/>
+    </row>
+    <row r="500" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J500"/>
+      <c r="K500"/>
+    </row>
+    <row r="501" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J501"/>
+      <c r="K501"/>
+    </row>
+    <row r="502" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J502"/>
+      <c r="K502"/>
+    </row>
+    <row r="503" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J503"/>
+      <c r="K503"/>
+    </row>
+    <row r="504" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J504"/>
+      <c r="K504"/>
+    </row>
+    <row r="505" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J505"/>
+      <c r="K505"/>
+    </row>
+    <row r="506" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J506"/>
+      <c r="K506"/>
+    </row>
+    <row r="507" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J507"/>
+      <c r="K507"/>
+    </row>
+    <row r="508" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J508"/>
+      <c r="K508"/>
+    </row>
+    <row r="509" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J509"/>
+      <c r="K509"/>
+    </row>
+    <row r="510" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J510"/>
+      <c r="K510"/>
+    </row>
+    <row r="511" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J511"/>
+      <c r="K511"/>
+    </row>
+    <row r="512" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J512"/>
+      <c r="K512"/>
+    </row>
+    <row r="513" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J513"/>
+      <c r="K513"/>
+    </row>
+    <row r="514" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J514"/>
+      <c r="K514"/>
+    </row>
+    <row r="515" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J515"/>
+      <c r="K515"/>
+    </row>
+    <row r="516" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J516"/>
+      <c r="K516"/>
+    </row>
+    <row r="517" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J517"/>
+      <c r="K517"/>
+    </row>
+    <row r="518" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J518"/>
+      <c r="K518"/>
+    </row>
+    <row r="519" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J519"/>
+      <c r="K519"/>
+    </row>
+    <row r="520" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J520"/>
+      <c r="K520"/>
+    </row>
+    <row r="521" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J521"/>
+      <c r="K521"/>
+    </row>
+    <row r="522" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J522"/>
+      <c r="K522"/>
+    </row>
+    <row r="523" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J523"/>
+      <c r="K523"/>
+    </row>
+    <row r="524" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J524"/>
+      <c r="K524"/>
+    </row>
+    <row r="525" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J525"/>
+      <c r="K525"/>
+    </row>
+    <row r="526" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J526"/>
+      <c r="K526"/>
+    </row>
+    <row r="527" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J527"/>
+      <c r="K527"/>
+    </row>
+    <row r="528" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J528"/>
+      <c r="K528"/>
+    </row>
+    <row r="529" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J529"/>
+      <c r="K529"/>
+    </row>
+    <row r="530" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J530"/>
+      <c r="K530"/>
+    </row>
+    <row r="531" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J531"/>
+      <c r="K531"/>
+    </row>
+    <row r="532" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J532"/>
+      <c r="K532"/>
+    </row>
+    <row r="533" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J533"/>
+      <c r="K533"/>
+    </row>
+    <row r="534" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J534"/>
+      <c r="K534"/>
+    </row>
+    <row r="535" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J535"/>
+      <c r="K535"/>
+    </row>
+    <row r="536" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J536"/>
+      <c r="K536"/>
+    </row>
+    <row r="537" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J537"/>
+      <c r="K537"/>
+    </row>
+    <row r="538" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J538"/>
+      <c r="K538"/>
+    </row>
+    <row r="539" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J539"/>
+      <c r="K539"/>
+    </row>
+    <row r="540" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J540"/>
+      <c r="K540"/>
+    </row>
+    <row r="541" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J541"/>
+      <c r="K541"/>
+    </row>
+    <row r="542" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J542"/>
+      <c r="K542"/>
+    </row>
+    <row r="543" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J543"/>
+      <c r="K543"/>
+    </row>
+    <row r="544" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J544"/>
+      <c r="K544"/>
+    </row>
+    <row r="545" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J545"/>
+      <c r="K545"/>
+    </row>
+    <row r="546" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J546"/>
+      <c r="K546"/>
+    </row>
+    <row r="547" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J547"/>
+      <c r="K547"/>
+    </row>
+    <row r="548" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J548"/>
+      <c r="K548"/>
+    </row>
+    <row r="549" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J549"/>
+      <c r="K549"/>
+    </row>
+    <row r="550" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J550"/>
+      <c r="K550"/>
+    </row>
+    <row r="551" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J551"/>
+      <c r="K551"/>
+    </row>
+    <row r="552" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J552"/>
+      <c r="K552"/>
+    </row>
+    <row r="553" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J553"/>
+      <c r="K553"/>
+    </row>
+    <row r="554" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J554"/>
+      <c r="K554"/>
+    </row>
+    <row r="555" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J555"/>
+      <c r="K555"/>
+    </row>
+    <row r="556" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J556"/>
+      <c r="K556"/>
+    </row>
+    <row r="557" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J557"/>
+      <c r="K557"/>
+    </row>
+    <row r="558" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J558"/>
+      <c r="K558"/>
+    </row>
+    <row r="559" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J559"/>
+      <c r="K559"/>
+    </row>
+    <row r="560" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J560"/>
+      <c r="K560"/>
+    </row>
+    <row r="561" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J561"/>
+      <c r="K561"/>
+    </row>
+    <row r="562" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J562"/>
+      <c r="K562"/>
+    </row>
+    <row r="563" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J563"/>
+      <c r="K563"/>
+    </row>
+    <row r="564" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J564"/>
+      <c r="K564"/>
+    </row>
+    <row r="565" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J565"/>
+      <c r="K565"/>
+    </row>
+    <row r="566" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J566"/>
+      <c r="K566"/>
+    </row>
+    <row r="567" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J567"/>
+      <c r="K567"/>
+    </row>
+    <row r="568" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J568"/>
+      <c r="K568"/>
+    </row>
+    <row r="569" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J569"/>
+      <c r="K569"/>
+    </row>
+    <row r="570" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J570"/>
+      <c r="K570"/>
+    </row>
+    <row r="571" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J571"/>
+      <c r="K571"/>
+    </row>
+    <row r="572" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J572"/>
+      <c r="K572"/>
+    </row>
+    <row r="573" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J573"/>
+      <c r="K573"/>
+    </row>
+    <row r="574" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J574"/>
+      <c r="K574"/>
+    </row>
+    <row r="575" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J575"/>
+      <c r="K575"/>
+    </row>
+    <row r="576" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J576"/>
+      <c r="K576"/>
+    </row>
+    <row r="577" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J577"/>
+      <c r="K577"/>
+    </row>
+    <row r="578" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J578"/>
+      <c r="K578"/>
+    </row>
+    <row r="579" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J579"/>
+      <c r="K579"/>
+    </row>
+    <row r="580" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J580"/>
+      <c r="K580"/>
+    </row>
+    <row r="581" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J581"/>
+      <c r="K581"/>
+    </row>
+    <row r="582" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J582"/>
+      <c r="K582"/>
+    </row>
+    <row r="583" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J583"/>
+      <c r="K583"/>
+    </row>
+    <row r="584" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J584"/>
+      <c r="K584"/>
+    </row>
+    <row r="585" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J585"/>
+      <c r="K585"/>
+    </row>
+    <row r="586" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J586"/>
+      <c r="K586"/>
+    </row>
+    <row r="587" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J587"/>
+      <c r="K587"/>
+    </row>
+    <row r="588" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J588"/>
+      <c r="K588"/>
+    </row>
+    <row r="589" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J589"/>
+      <c r="K589"/>
+    </row>
+    <row r="590" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J590"/>
+      <c r="K590"/>
+    </row>
+    <row r="591" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J591"/>
+      <c r="K591"/>
+    </row>
+    <row r="592" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J592"/>
+      <c r="K592"/>
+    </row>
+    <row r="593" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J593"/>
+      <c r="K593"/>
+    </row>
+    <row r="594" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J594"/>
+      <c r="K594"/>
+    </row>
+    <row r="595" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J595"/>
+      <c r="K595"/>
+    </row>
+    <row r="596" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J596"/>
+      <c r="K596"/>
+    </row>
+    <row r="597" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J597"/>
+      <c r="K597"/>
+    </row>
+    <row r="598" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J598"/>
+      <c r="K598"/>
+    </row>
+    <row r="599" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J599"/>
+      <c r="K599"/>
+    </row>
+    <row r="600" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J600"/>
+      <c r="K600"/>
+    </row>
+    <row r="601" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J601"/>
+      <c r="K601"/>
+    </row>
+    <row r="602" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J602"/>
+      <c r="K602"/>
+    </row>
+    <row r="603" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J603"/>
+      <c r="K603"/>
+    </row>
+    <row r="604" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J604"/>
+      <c r="K604"/>
+    </row>
+    <row r="605" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J605"/>
+      <c r="K605"/>
+    </row>
+    <row r="606" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J606"/>
+      <c r="K606"/>
+    </row>
+    <row r="607" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J607"/>
+      <c r="K607"/>
+    </row>
+    <row r="608" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J608"/>
+      <c r="K608"/>
+    </row>
+    <row r="609" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J609"/>
+      <c r="K609"/>
+    </row>
+    <row r="610" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J610"/>
+      <c r="K610"/>
+    </row>
+    <row r="611" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J611"/>
+      <c r="K611"/>
+    </row>
+    <row r="612" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J612"/>
+      <c r="K612"/>
+    </row>
+    <row r="613" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J613"/>
+      <c r="K613"/>
+    </row>
+    <row r="614" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J614"/>
+      <c r="K614"/>
+    </row>
+    <row r="615" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J615"/>
+      <c r="K615"/>
+    </row>
+    <row r="616" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J616"/>
+      <c r="K616"/>
+    </row>
+    <row r="617" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J617"/>
+      <c r="K617"/>
+    </row>
+    <row r="618" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J618"/>
+      <c r="K618"/>
+    </row>
+    <row r="619" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J619"/>
+      <c r="K619"/>
+    </row>
+    <row r="620" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J620"/>
+      <c r="K620"/>
+    </row>
+    <row r="621" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J621"/>
+      <c r="K621"/>
+    </row>
+    <row r="622" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J622"/>
+      <c r="K622"/>
+    </row>
+    <row r="623" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J623"/>
+      <c r="K623"/>
+    </row>
+    <row r="624" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J624"/>
+      <c r="K624"/>
+    </row>
+    <row r="625" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J625"/>
+      <c r="K625"/>
+    </row>
+    <row r="626" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J626"/>
+      <c r="K626"/>
+    </row>
+    <row r="627" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J627"/>
+      <c r="K627"/>
+    </row>
+    <row r="628" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J628"/>
+      <c r="K628"/>
+    </row>
+    <row r="629" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J629"/>
+      <c r="K629"/>
+    </row>
+    <row r="630" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J630"/>
+      <c r="K630"/>
+    </row>
+    <row r="631" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J631"/>
+      <c r="K631"/>
+    </row>
+    <row r="632" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J632"/>
+      <c r="K632"/>
+    </row>
+    <row r="633" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J633"/>
+      <c r="K633"/>
+    </row>
+    <row r="634" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J634"/>
+      <c r="K634"/>
+    </row>
+    <row r="635" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J635"/>
+      <c r="K635"/>
+    </row>
+    <row r="636" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J636"/>
+      <c r="K636"/>
+    </row>
+    <row r="637" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J637"/>
+      <c r="K637"/>
+    </row>
+    <row r="638" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J638"/>
+      <c r="K638"/>
+    </row>
+    <row r="639" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J639"/>
+      <c r="K639"/>
+    </row>
+    <row r="640" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J640"/>
+      <c r="K640"/>
+    </row>
+    <row r="641" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J641"/>
+      <c r="K641"/>
+    </row>
+    <row r="642" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J642"/>
+      <c r="K642"/>
+    </row>
+    <row r="643" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J643"/>
+      <c r="K643"/>
+    </row>
+    <row r="644" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J644"/>
+      <c r="K644"/>
+    </row>
+    <row r="645" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J645"/>
+      <c r="K645"/>
+    </row>
+    <row r="646" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J646"/>
+      <c r="K646"/>
+    </row>
+    <row r="647" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J647"/>
+      <c r="K647"/>
+    </row>
+    <row r="648" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J648"/>
+      <c r="K648"/>
+    </row>
+    <row r="649" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J649"/>
+      <c r="K649"/>
+    </row>
+    <row r="650" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J650"/>
+      <c r="K650"/>
+    </row>
+    <row r="651" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J651"/>
+      <c r="K651"/>
+    </row>
+    <row r="652" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J652"/>
+      <c r="K652"/>
+    </row>
+    <row r="653" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J653"/>
+      <c r="K653"/>
+    </row>
+    <row r="654" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J654"/>
+      <c r="K654"/>
+    </row>
+    <row r="655" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J655"/>
+      <c r="K655"/>
+    </row>
+    <row r="656" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J656"/>
+      <c r="K656"/>
+    </row>
+    <row r="657" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J657"/>
+      <c r="K657"/>
+    </row>
+    <row r="658" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J658"/>
+      <c r="K658"/>
+    </row>
+    <row r="659" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J659"/>
+      <c r="K659"/>
+    </row>
+    <row r="660" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J660"/>
+      <c r="K660"/>
+    </row>
+    <row r="661" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J661"/>
+      <c r="K661"/>
+    </row>
+    <row r="662" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J662"/>
+      <c r="K662"/>
+    </row>
+    <row r="663" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J663"/>
+      <c r="K663"/>
+    </row>
+    <row r="664" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J664"/>
+      <c r="K664"/>
+    </row>
+    <row r="665" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J665"/>
+      <c r="K665"/>
+    </row>
+    <row r="666" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J666"/>
+      <c r="K666"/>
+    </row>
+    <row r="667" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J667"/>
+      <c r="K667"/>
+    </row>
+    <row r="668" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J668"/>
+      <c r="K668"/>
+    </row>
+    <row r="669" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J669"/>
+      <c r="K669"/>
+    </row>
+    <row r="670" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J670"/>
+      <c r="K670"/>
+    </row>
+    <row r="671" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J671"/>
+      <c r="K671"/>
+    </row>
+    <row r="672" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J672"/>
+      <c r="K672"/>
+    </row>
+    <row r="673" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J673"/>
+      <c r="K673"/>
+    </row>
+    <row r="674" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J674"/>
+      <c r="K674"/>
+    </row>
+    <row r="675" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J675"/>
+      <c r="K675"/>
+    </row>
+    <row r="676" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J676"/>
+      <c r="K676"/>
+    </row>
+    <row r="677" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J677"/>
+      <c r="K677"/>
+    </row>
+    <row r="678" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J678"/>
+      <c r="K678"/>
+    </row>
+    <row r="679" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J679"/>
+      <c r="K679"/>
+    </row>
+    <row r="680" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J680"/>
+      <c r="K680"/>
+    </row>
+    <row r="681" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J681"/>
+      <c r="K681"/>
+    </row>
+    <row r="682" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J682"/>
+      <c r="K682"/>
+    </row>
+    <row r="683" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J683"/>
+      <c r="K683"/>
+    </row>
+    <row r="684" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J684"/>
+      <c r="K684"/>
+    </row>
+    <row r="685" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J685"/>
+      <c r="K685"/>
+    </row>
+    <row r="686" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J686"/>
+      <c r="K686"/>
+    </row>
+    <row r="687" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J687"/>
+      <c r="K687"/>
+    </row>
+    <row r="688" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J688"/>
+      <c r="K688"/>
+    </row>
+    <row r="689" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J689"/>
+      <c r="K689"/>
+    </row>
+    <row r="690" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J690"/>
+      <c r="K690"/>
+    </row>
+    <row r="691" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J691"/>
+      <c r="K691"/>
+    </row>
+    <row r="692" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J692"/>
+      <c r="K692"/>
+    </row>
+    <row r="693" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J693"/>
+      <c r="K693"/>
+    </row>
+    <row r="694" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J694"/>
+      <c r="K694"/>
+    </row>
+    <row r="695" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J695"/>
+      <c r="K695"/>
+    </row>
+    <row r="696" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J696"/>
+      <c r="K696"/>
+    </row>
+    <row r="697" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J697"/>
+      <c r="K697"/>
+    </row>
+    <row r="698" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J698"/>
+      <c r="K698"/>
+    </row>
+    <row r="699" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J699"/>
+      <c r="K699"/>
+    </row>
+    <row r="700" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J700"/>
+      <c r="K700"/>
+    </row>
+    <row r="701" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J701"/>
+      <c r="K701"/>
+    </row>
+    <row r="702" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J702"/>
+      <c r="K702"/>
+    </row>
+    <row r="703" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J703"/>
+      <c r="K703"/>
+    </row>
+    <row r="704" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J704"/>
+      <c r="K704"/>
+    </row>
+    <row r="705" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J705"/>
+      <c r="K705"/>
+    </row>
+    <row r="706" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J706"/>
+      <c r="K706"/>
+    </row>
+    <row r="707" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J707"/>
+      <c r="K707"/>
+    </row>
+    <row r="708" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J708"/>
+      <c r="K708"/>
+    </row>
+    <row r="709" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J709"/>
+      <c r="K709"/>
+    </row>
+    <row r="710" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J710"/>
+      <c r="K710"/>
+    </row>
+    <row r="711" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J711"/>
+      <c r="K711"/>
+    </row>
+    <row r="712" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J712"/>
+      <c r="K712"/>
+    </row>
+    <row r="713" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J713"/>
+      <c r="K713"/>
+    </row>
+    <row r="714" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J714"/>
+      <c r="K714"/>
+    </row>
+    <row r="715" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J715"/>
+      <c r="K715"/>
+    </row>
+    <row r="716" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J716"/>
+      <c r="K716"/>
+    </row>
+    <row r="717" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J717"/>
+      <c r="K717"/>
+    </row>
+    <row r="718" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J718"/>
+      <c r="K718"/>
+    </row>
+    <row r="719" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J719"/>
+      <c r="K719"/>
+    </row>
+    <row r="720" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J720"/>
+      <c r="K720"/>
+    </row>
+    <row r="721" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J721"/>
+      <c r="K721"/>
+    </row>
+    <row r="722" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J722"/>
+      <c r="K722"/>
+    </row>
+    <row r="723" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J723"/>
+      <c r="K723"/>
+    </row>
+    <row r="724" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J724"/>
+      <c r="K724"/>
+    </row>
+    <row r="725" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J725"/>
+      <c r="K725"/>
+    </row>
+    <row r="726" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J726"/>
+      <c r="K726"/>
+    </row>
+    <row r="727" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J727"/>
+      <c r="K727"/>
+    </row>
+    <row r="728" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J728"/>
+      <c r="K728"/>
+    </row>
+    <row r="729" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J729"/>
+      <c r="K729"/>
+    </row>
+    <row r="730" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J730"/>
+      <c r="K730"/>
+    </row>
+    <row r="731" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J731"/>
+      <c r="K731"/>
+    </row>
+    <row r="732" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J732"/>
+      <c r="K732"/>
+    </row>
+    <row r="733" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J733"/>
+      <c r="K733"/>
+    </row>
+    <row r="734" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J734"/>
+      <c r="K734"/>
+    </row>
+    <row r="735" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J735"/>
+      <c r="K735"/>
+    </row>
+    <row r="736" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J736"/>
+      <c r="K736"/>
+    </row>
+    <row r="737" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J737"/>
+      <c r="K737"/>
+    </row>
+    <row r="738" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J738"/>
+      <c r="K738"/>
+    </row>
+    <row r="739" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J739"/>
+      <c r="K739"/>
+    </row>
+    <row r="740" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J740"/>
+      <c r="K740"/>
+    </row>
+    <row r="741" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J741"/>
+      <c r="K741"/>
+    </row>
+    <row r="742" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J742"/>
+      <c r="K742"/>
+    </row>
+    <row r="743" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J743"/>
+      <c r="K743"/>
+    </row>
+    <row r="744" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J744"/>
+      <c r="K744"/>
+    </row>
+    <row r="745" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J745"/>
+      <c r="K745"/>
+    </row>
+    <row r="746" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J746"/>
+      <c r="K746"/>
+    </row>
+    <row r="747" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J747"/>
+      <c r="K747"/>
+    </row>
+    <row r="748" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J748"/>
+      <c r="K748"/>
+    </row>
+    <row r="749" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J749"/>
+      <c r="K749"/>
+    </row>
+    <row r="750" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J750"/>
+      <c r="K750"/>
+    </row>
+    <row r="751" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J751"/>
+      <c r="K751"/>
+    </row>
+    <row r="752" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J752"/>
+      <c r="K752"/>
+    </row>
+    <row r="753" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J753"/>
+      <c r="K753"/>
+    </row>
+    <row r="754" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J754"/>
+      <c r="K754"/>
+    </row>
+    <row r="755" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J755"/>
+      <c r="K755"/>
+    </row>
+    <row r="756" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J756"/>
+      <c r="K756"/>
+    </row>
+    <row r="757" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J757"/>
+      <c r="K757"/>
+    </row>
+    <row r="758" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J758"/>
+      <c r="K758"/>
+    </row>
+    <row r="759" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J759"/>
+      <c r="K759"/>
+    </row>
+    <row r="760" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J760"/>
+      <c r="K760"/>
+    </row>
+    <row r="761" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J761"/>
+      <c r="K761"/>
+    </row>
+    <row r="762" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J762"/>
+      <c r="K762"/>
+    </row>
+    <row r="763" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J763"/>
+      <c r="K763"/>
+    </row>
+    <row r="764" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J764"/>
+      <c r="K764"/>
+    </row>
+    <row r="765" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J765"/>
+      <c r="K765"/>
+    </row>
+    <row r="766" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J766"/>
+      <c r="K766"/>
+    </row>
+    <row r="767" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J767"/>
+      <c r="K767"/>
+    </row>
+    <row r="768" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J768"/>
+      <c r="K768"/>
+    </row>
+    <row r="769" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J769"/>
+      <c r="K769"/>
+    </row>
+    <row r="770" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J770"/>
+      <c r="K770"/>
+    </row>
+    <row r="771" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J771"/>
+      <c r="K771"/>
+    </row>
+    <row r="772" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J772"/>
+      <c r="K772"/>
+    </row>
+    <row r="773" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J773"/>
+      <c r="K773"/>
+    </row>
+    <row r="774" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J774"/>
+      <c r="K774"/>
+    </row>
+    <row r="775" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J775"/>
+      <c r="K775"/>
+    </row>
+    <row r="776" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J776"/>
+      <c r="K776"/>
+    </row>
+    <row r="777" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J777"/>
+      <c r="K777"/>
+    </row>
+    <row r="778" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J778"/>
+      <c r="K778"/>
+    </row>
+    <row r="779" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J779"/>
+      <c r="K779"/>
+    </row>
+    <row r="780" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J780"/>
+      <c r="K780"/>
+    </row>
+    <row r="781" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J781"/>
+      <c r="K781"/>
+    </row>
+    <row r="782" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J782"/>
+      <c r="K782"/>
+    </row>
+    <row r="783" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J783"/>
+      <c r="K783"/>
+    </row>
+    <row r="784" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J784"/>
+      <c r="K784"/>
+    </row>
+    <row r="785" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J785"/>
+      <c r="K785"/>
+    </row>
+    <row r="786" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J786"/>
+      <c r="K786"/>
+    </row>
+    <row r="787" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J787"/>
+      <c r="K787"/>
+    </row>
+    <row r="788" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J788"/>
+      <c r="K788"/>
+    </row>
+    <row r="789" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J789"/>
+      <c r="K789"/>
+    </row>
+    <row r="790" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J790"/>
+      <c r="K790"/>
+    </row>
+    <row r="791" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J791"/>
+      <c r="K791"/>
+    </row>
+    <row r="792" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J792"/>
+      <c r="K792"/>
+    </row>
+    <row r="793" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J793"/>
+      <c r="K793"/>
+    </row>
+    <row r="794" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J794"/>
+      <c r="K794"/>
+    </row>
+    <row r="795" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J795"/>
+      <c r="K795"/>
+    </row>
+    <row r="796" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J796"/>
+      <c r="K796"/>
+    </row>
+    <row r="797" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J797"/>
+      <c r="K797"/>
+    </row>
+    <row r="798" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J798"/>
+      <c r="K798"/>
+    </row>
+    <row r="799" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J799"/>
+      <c r="K799"/>
+    </row>
+    <row r="800" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J800"/>
+      <c r="K800"/>
+    </row>
+    <row r="801" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J801"/>
+      <c r="K801"/>
+    </row>
+    <row r="802" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J802"/>
+      <c r="K802"/>
+    </row>
+    <row r="803" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J803"/>
+      <c r="K803"/>
+    </row>
+    <row r="804" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J804"/>
+      <c r="K804"/>
+    </row>
+    <row r="805" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J805"/>
+      <c r="K805"/>
+    </row>
+    <row r="806" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J806"/>
+      <c r="K806"/>
+    </row>
+    <row r="807" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J807"/>
+      <c r="K807"/>
+    </row>
+    <row r="808" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J808"/>
+      <c r="K808"/>
+    </row>
+    <row r="809" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J809"/>
+      <c r="K809"/>
+    </row>
+    <row r="810" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J810"/>
+      <c r="K810"/>
+    </row>
+    <row r="811" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J811"/>
+      <c r="K811"/>
+    </row>
+    <row r="812" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J812"/>
+      <c r="K812"/>
+    </row>
+    <row r="813" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J813"/>
+      <c r="K813"/>
+    </row>
+    <row r="814" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J814"/>
+      <c r="K814"/>
+    </row>
+    <row r="815" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J815"/>
+      <c r="K815"/>
+    </row>
+    <row r="816" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J816"/>
+      <c r="K816"/>
+    </row>
+    <row r="817" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J817"/>
+      <c r="K817"/>
+    </row>
+    <row r="818" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J818"/>
+      <c r="K818"/>
+    </row>
+    <row r="819" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J819"/>
+      <c r="K819"/>
+    </row>
+    <row r="820" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J820"/>
+      <c r="K820"/>
+    </row>
+    <row r="821" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J821"/>
+      <c r="K821"/>
+    </row>
+    <row r="822" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J822"/>
+      <c r="K822"/>
+    </row>
+    <row r="823" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J823"/>
+      <c r="K823"/>
+    </row>
+    <row r="824" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J824"/>
+      <c r="K824"/>
+    </row>
+    <row r="825" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J825"/>
+      <c r="K825"/>
+    </row>
+    <row r="826" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J826"/>
+      <c r="K826"/>
+    </row>
+    <row r="827" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J827"/>
+      <c r="K827"/>
+    </row>
+    <row r="828" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J828"/>
+      <c r="K828"/>
+    </row>
+    <row r="829" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J829"/>
+      <c r="K829"/>
+    </row>
+    <row r="830" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J830"/>
+      <c r="K830"/>
+    </row>
+    <row r="831" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J831"/>
+      <c r="K831"/>
+    </row>
+    <row r="832" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J832"/>
+      <c r="K832"/>
+    </row>
+    <row r="833" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J833"/>
+      <c r="K833"/>
+    </row>
+    <row r="834" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J834"/>
+      <c r="K834"/>
+    </row>
+    <row r="835" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J835"/>
+      <c r="K835"/>
+    </row>
+    <row r="836" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J836"/>
+      <c r="K836"/>
+    </row>
+    <row r="837" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J837"/>
+      <c r="K837"/>
+    </row>
+    <row r="838" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J838"/>
+      <c r="K838"/>
+    </row>
+    <row r="839" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J839"/>
+      <c r="K839"/>
+    </row>
+    <row r="840" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J840"/>
+      <c r="K840"/>
+    </row>
+    <row r="841" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J841"/>
+      <c r="K841"/>
+    </row>
+    <row r="842" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J842"/>
+      <c r="K842"/>
+    </row>
+    <row r="843" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J843"/>
+      <c r="K843"/>
+    </row>
+    <row r="844" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J844"/>
+      <c r="K844"/>
+    </row>
+    <row r="845" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J845"/>
+      <c r="K845"/>
+    </row>
+    <row r="846" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J846"/>
+      <c r="K846"/>
+    </row>
+    <row r="847" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J847"/>
+      <c r="K847"/>
+    </row>
+    <row r="848" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J848"/>
+      <c r="K848"/>
+    </row>
+    <row r="849" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J849"/>
+      <c r="K849"/>
+    </row>
+    <row r="850" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J850"/>
+      <c r="K850"/>
+    </row>
+    <row r="851" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J851"/>
+      <c r="K851"/>
+    </row>
+    <row r="852" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J852"/>
+      <c r="K852"/>
+    </row>
+    <row r="853" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J853"/>
+      <c r="K853"/>
+    </row>
+    <row r="854" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J854"/>
+      <c r="K854"/>
+    </row>
+    <row r="855" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J855"/>
+      <c r="K855"/>
+    </row>
+    <row r="856" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J856"/>
+      <c r="K856"/>
+    </row>
+    <row r="857" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J857"/>
+      <c r="K857"/>
+    </row>
+    <row r="858" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J858"/>
+      <c r="K858"/>
+    </row>
+    <row r="859" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J859"/>
+      <c r="K859"/>
+    </row>
+    <row r="860" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J860"/>
+      <c r="K860"/>
+    </row>
+    <row r="861" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J861"/>
+      <c r="K861"/>
+    </row>
+    <row r="862" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J862"/>
+      <c r="K862"/>
+    </row>
+    <row r="863" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J863"/>
+      <c r="K863"/>
+    </row>
+    <row r="864" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J864"/>
+      <c r="K864"/>
+    </row>
+    <row r="865" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J865"/>
+      <c r="K865"/>
+    </row>
+    <row r="866" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J866"/>
+      <c r="K866"/>
+    </row>
+    <row r="867" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J867"/>
+      <c r="K867"/>
+    </row>
+    <row r="868" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J868"/>
+      <c r="K868"/>
+    </row>
+    <row r="869" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J869"/>
+      <c r="K869"/>
+    </row>
+    <row r="870" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J870"/>
+      <c r="K870"/>
+    </row>
+    <row r="871" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J871"/>
+      <c r="K871"/>
+    </row>
+    <row r="872" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J872"/>
+      <c r="K872"/>
+    </row>
+    <row r="873" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J873"/>
+      <c r="K873"/>
+    </row>
+    <row r="874" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J874"/>
+      <c r="K874"/>
+    </row>
+    <row r="875" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J875"/>
+      <c r="K875"/>
+    </row>
+    <row r="876" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J876"/>
+      <c r="K876"/>
+    </row>
+    <row r="877" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J877"/>
+      <c r="K877"/>
+    </row>
+    <row r="878" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J878"/>
+      <c r="K878"/>
+    </row>
+    <row r="879" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J879"/>
+      <c r="K879"/>
+    </row>
+    <row r="880" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J880"/>
+      <c r="K880"/>
+    </row>
+    <row r="881" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J881"/>
+      <c r="K881"/>
+    </row>
+    <row r="882" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J882"/>
+      <c r="K882"/>
+    </row>
+    <row r="883" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J883"/>
+      <c r="K883"/>
+    </row>
+    <row r="884" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J884"/>
+      <c r="K884"/>
+    </row>
+    <row r="885" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J885"/>
+      <c r="K885"/>
+    </row>
+    <row r="886" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J886"/>
+      <c r="K886"/>
+    </row>
+    <row r="887" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J887"/>
+      <c r="K887"/>
+    </row>
+    <row r="888" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J888"/>
+      <c r="K888"/>
+    </row>
+    <row r="889" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J889"/>
+      <c r="K889"/>
+    </row>
+    <row r="890" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J890"/>
+      <c r="K890"/>
+    </row>
+    <row r="891" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J891"/>
+      <c r="K891"/>
+    </row>
+    <row r="892" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J892"/>
+      <c r="K892"/>
+    </row>
+    <row r="893" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J893"/>
+      <c r="K893"/>
+    </row>
+    <row r="894" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J894"/>
+      <c r="K894"/>
+    </row>
+    <row r="895" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J895"/>
+      <c r="K895"/>
+    </row>
+    <row r="896" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J896"/>
+      <c r="K896"/>
+    </row>
+    <row r="897" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J897"/>
+      <c r="K897"/>
+    </row>
+    <row r="898" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J898"/>
+      <c r="K898"/>
+    </row>
+    <row r="899" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J899"/>
+      <c r="K899"/>
+    </row>
+    <row r="900" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J900"/>
+      <c r="K900"/>
+    </row>
+    <row r="901" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J901"/>
+      <c r="K901"/>
+    </row>
+    <row r="902" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J902"/>
+      <c r="K902"/>
+    </row>
+    <row r="903" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J903"/>
+      <c r="K903"/>
+    </row>
+    <row r="904" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J904"/>
+      <c r="K904"/>
+    </row>
+    <row r="905" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J905"/>
+      <c r="K905"/>
+    </row>
+    <row r="906" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J906"/>
+      <c r="K906"/>
+    </row>
+    <row r="907" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J907"/>
+      <c r="K907"/>
+    </row>
+    <row r="908" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J908"/>
+      <c r="K908"/>
+    </row>
+    <row r="909" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J909"/>
+      <c r="K909"/>
+    </row>
+    <row r="910" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J910"/>
+      <c r="K910"/>
+    </row>
+    <row r="911" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J911"/>
+      <c r="K911"/>
+    </row>
+    <row r="912" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J912"/>
+      <c r="K912"/>
+    </row>
+    <row r="913" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J913"/>
+      <c r="K913"/>
+    </row>
+    <row r="914" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J914"/>
+      <c r="K914"/>
+    </row>
+    <row r="915" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J915"/>
+      <c r="K915"/>
+    </row>
+    <row r="916" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J916"/>
+      <c r="K916"/>
+    </row>
+    <row r="917" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J917"/>
+      <c r="K917"/>
+    </row>
+    <row r="918" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J918"/>
+      <c r="K918"/>
+    </row>
+    <row r="919" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J919"/>
+      <c r="K919"/>
+    </row>
+    <row r="920" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J920"/>
+      <c r="K920"/>
+    </row>
+    <row r="921" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J921"/>
+      <c r="K921"/>
+    </row>
+    <row r="922" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J922"/>
+      <c r="K922"/>
+    </row>
+    <row r="923" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J923"/>
+      <c r="K923"/>
+    </row>
+    <row r="924" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J924"/>
+      <c r="K924"/>
+    </row>
+    <row r="925" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J925"/>
+      <c r="K925"/>
+    </row>
+    <row r="926" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J926"/>
+      <c r="K926"/>
+    </row>
+    <row r="927" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J927"/>
+      <c r="K927"/>
+    </row>
+    <row r="928" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J928"/>
+      <c r="K928"/>
+    </row>
+    <row r="929" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J929"/>
+      <c r="K929"/>
+    </row>
+    <row r="930" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J930"/>
+      <c r="K930"/>
+    </row>
+    <row r="931" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J931"/>
+      <c r="K931"/>
+    </row>
+    <row r="932" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J932"/>
+      <c r="K932"/>
+    </row>
+    <row r="933" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J933"/>
+      <c r="K933"/>
+    </row>
+    <row r="934" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J934"/>
+      <c r="K934"/>
+    </row>
+    <row r="935" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J935"/>
+      <c r="K935"/>
+    </row>
+    <row r="936" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J936"/>
+      <c r="K936"/>
+    </row>
+    <row r="937" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J937"/>
+      <c r="K937"/>
+    </row>
+    <row r="938" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J938"/>
+      <c r="K938"/>
+    </row>
+    <row r="939" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J939"/>
+      <c r="K939"/>
+    </row>
+    <row r="940" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J940"/>
+      <c r="K940"/>
+    </row>
+    <row r="941" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J941"/>
+      <c r="K941"/>
+    </row>
+    <row r="942" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J942"/>
+      <c r="K942"/>
+    </row>
+    <row r="943" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J943"/>
+      <c r="K943"/>
+    </row>
+    <row r="944" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J944"/>
+      <c r="K944"/>
+    </row>
+    <row r="945" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J945"/>
+      <c r="K945"/>
+    </row>
+    <row r="946" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J946"/>
+      <c r="K946"/>
+    </row>
+    <row r="947" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J947"/>
+      <c r="K947"/>
+    </row>
+    <row r="948" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J948"/>
+      <c r="K948"/>
+    </row>
+    <row r="949" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J949"/>
+      <c r="K949"/>
+    </row>
+    <row r="950" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J950"/>
+      <c r="K950"/>
+    </row>
+    <row r="951" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J951"/>
+      <c r="K951"/>
+    </row>
+    <row r="952" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J952"/>
+      <c r="K952"/>
+    </row>
+    <row r="953" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J953"/>
+      <c r="K953"/>
+    </row>
+    <row r="954" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J954"/>
+      <c r="K954"/>
+    </row>
+    <row r="955" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J955"/>
+      <c r="K955"/>
+    </row>
+    <row r="956" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J956"/>
+      <c r="K956"/>
+    </row>
+    <row r="957" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J957"/>
+      <c r="K957"/>
+    </row>
+    <row r="958" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J958"/>
+      <c r="K958"/>
+    </row>
+    <row r="959" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J959"/>
+      <c r="K959"/>
+    </row>
+    <row r="960" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J960"/>
+      <c r="K960"/>
+    </row>
+    <row r="961" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J961"/>
+      <c r="K961"/>
+    </row>
+    <row r="962" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J962"/>
+      <c r="K962"/>
+    </row>
+    <row r="963" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J963"/>
+      <c r="K963"/>
+    </row>
+    <row r="964" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J964"/>
+      <c r="K964"/>
+    </row>
+    <row r="965" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J965"/>
+      <c r="K965"/>
+    </row>
+    <row r="966" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J966"/>
+      <c r="K966"/>
+    </row>
+    <row r="967" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J967"/>
+      <c r="K967"/>
+    </row>
+    <row r="968" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J968"/>
+      <c r="K968"/>
+    </row>
+    <row r="969" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J969"/>
+      <c r="K969"/>
+    </row>
+    <row r="970" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J970"/>
+      <c r="K970"/>
+    </row>
+    <row r="971" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J971"/>
+      <c r="K971"/>
+    </row>
+    <row r="972" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J972"/>
+      <c r="K972"/>
+    </row>
+    <row r="973" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J973"/>
+      <c r="K973"/>
+    </row>
+    <row r="974" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J974"/>
+      <c r="K974"/>
+    </row>
+    <row r="975" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J975"/>
+      <c r="K975"/>
+    </row>
+    <row r="976" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J976"/>
+      <c r="K976"/>
+    </row>
+    <row r="977" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J977"/>
+      <c r="K977"/>
+    </row>
+    <row r="978" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J978"/>
+      <c r="K978"/>
+    </row>
+    <row r="979" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J979"/>
+      <c r="K979"/>
+    </row>
+    <row r="980" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J980"/>
+      <c r="K980"/>
+    </row>
+    <row r="981" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J981"/>
+      <c r="K981"/>
+    </row>
+    <row r="982" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J982"/>
+      <c r="K982"/>
+    </row>
+    <row r="983" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J983"/>
+      <c r="K983"/>
+    </row>
+    <row r="984" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J984"/>
+      <c r="K984"/>
+    </row>
+    <row r="985" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J985"/>
+      <c r="K985"/>
+    </row>
+    <row r="986" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J986"/>
+      <c r="K986"/>
+    </row>
+    <row r="987" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J987"/>
+      <c r="K987"/>
+    </row>
+    <row r="988" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J988"/>
+      <c r="K988"/>
+    </row>
+    <row r="989" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J989"/>
+      <c r="K989"/>
+    </row>
+    <row r="990" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J990"/>
+      <c r="K990"/>
+    </row>
+    <row r="991" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J991"/>
+      <c r="K991"/>
+    </row>
+    <row r="992" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J992"/>
+      <c r="K992"/>
+    </row>
+    <row r="993" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J993"/>
+      <c r="K993"/>
+    </row>
+    <row r="994" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J994"/>
+      <c r="K994"/>
+    </row>
+    <row r="995" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J995"/>
+      <c r="K995"/>
+    </row>
+    <row r="996" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J996"/>
+      <c r="K996"/>
+    </row>
+    <row r="997" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J997"/>
+      <c r="K997"/>
+    </row>
+    <row r="998" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J998"/>
+      <c r="K998"/>
+    </row>
+    <row r="999" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J999"/>
+      <c r="K999"/>
+    </row>
+    <row r="1000" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J1000"/>
+      <c r="K1000"/>
     </row>
   </sheetData>
-  <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K7:K10 J6 L6 M7:M10 J5 L3:L4 Q2" xr:uid="{4CBC4F7A-CAE0-4273-9B44-B686111ECF83}">
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2" xr:uid="{4CBC4F7A-CAE0-4273-9B44-B686111ECF83}">
       <formula1>"""3,5,10,15,20"""</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J10 L6:L10 L3:L4" xr:uid="{638F3690-EE2A-454A-9984-B221A0E4CF0F}">
-      <formula1>"""NIFTY,BANKNIFTY,FINNIFTY,MIDCPNIFTY,SENSEX"""</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2" xr:uid="{1CBDF931-DD4D-4825-A66A-4FEF531E64FA}">
       <formula1>"""28-Mar-2024,04-Apr-2024,10-Apr-2024,18-Apr-2024,25-Apr-2024,02-May-2024,30-May-2024,27-Jun-2024,26-Sep-2024,26-Dec-2024,26-Jun-2025,24-Dec-2025,25-Jun-2026,31-Dec-2026,24-Jun-2027,30-Dec-2027,29-Jun-2028,28-Dec-2028"""</formula1>
@@ -1869,7 +5442,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2" xr:uid="{4DA76A91-6DD4-4492-8D94-9A9CA490D58C}">
       <formula1>"""NIFTY,BANKNIFTY,FINNIFTY,MIDCPNIFTY"""</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2" xr:uid="{C95600A7-9701-477B-B112-B3EEF3FCBA36}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2" xr:uid="{85BFB0F1-8B95-418A-BD37-708D70B551DB}">
       <formula1>""""""</formula1>
     </dataValidation>
   </dataValidations>
